--- a/01 DOCUEMENTOS/ETIQ,.LIBROS.xlsx
+++ b/01 DOCUEMENTOS/ETIQ,.LIBROS.xlsx
@@ -1,22 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ROUSS\Documents\GitHub\TRABAJO\01 DOCUEMENTOS\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="105" windowWidth="10335" windowHeight="4815"/>
+    <workbookView xWindow="600" yWindow="105" windowWidth="10335" windowHeight="4815" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="LIBROS " sheetId="1" r:id="rId1"/>
-    <sheet name="ALEXANDER" sheetId="2" r:id="rId2"/>
-    <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
+    <sheet name="Hoja3" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="9">
   <si>
     <t xml:space="preserve">                     </t>
   </si>
@@ -35,12 +39,21 @@
   <si>
     <t>Ma. Jose Hernandez Pedraza</t>
   </si>
+  <si>
+    <t>GRADO 1º A</t>
+  </si>
+  <si>
+    <t>PRIMARIA: NEZAHUALCOYOLT</t>
+  </si>
+  <si>
+    <t>DAMIAN HERNANDEZ POLVO</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -74,6 +87,22 @@
       <b/>
       <i/>
       <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -137,7 +166,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -165,18 +194,23 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -184,6 +218,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -230,7 +272,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -262,9 +304,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -296,6 +339,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -471,14 +515,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:B9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.5703125" customWidth="1"/>
     <col min="2" max="2" width="36.140625" customWidth="1"/>
@@ -487,7 +531,7 @@
     <col min="5" max="5" width="36.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="28.5" customHeight="1">
+    <row r="1" spans="2:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" s="7" t="s">
         <v>2</v>
       </c>
@@ -497,109 +541,109 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="2:5" ht="22.5" customHeight="1" thickBot="1">
+    <row r="2" spans="2:5" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="14"/>
+      <c r="C2" s="12"/>
       <c r="D2" s="2"/>
       <c r="E2" s="9" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:5" ht="18.75">
-      <c r="B3" s="11"/>
+    <row r="3" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B3" s="15"/>
       <c r="C3" s="10"/>
       <c r="D3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="11"/>
-    </row>
-    <row r="4" spans="2:5" ht="18.75">
-      <c r="B4" s="11"/>
+      <c r="E3" s="15"/>
+    </row>
+    <row r="4" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B4" s="15"/>
       <c r="C4" s="10"/>
       <c r="D4" s="2"/>
-      <c r="E4" s="11"/>
-    </row>
-    <row r="5" spans="2:5" ht="18" customHeight="1">
+      <c r="E4" s="15"/>
+    </row>
+    <row r="5" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="2"/>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="2:5" ht="23.25" customHeight="1">
+    <row r="6" spans="2:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" s="2"/>
       <c r="E6" s="5"/>
     </row>
-    <row r="7" spans="2:5" ht="27" customHeight="1" thickBot="1">
+    <row r="7" spans="2:5" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="2"/>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="2:5" ht="28.5" customHeight="1">
-      <c r="B8" s="12" t="s">
+    <row r="8" spans="2:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="15"/>
+      <c r="C8" s="13"/>
       <c r="D8" s="2"/>
       <c r="E8" s="7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="2:5" ht="20.25" customHeight="1">
-      <c r="B9" s="12"/>
-      <c r="C9" s="15"/>
+    <row r="9" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="16"/>
+      <c r="C9" s="13"/>
       <c r="D9" s="2"/>
       <c r="E9" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="2:5" ht="15" customHeight="1" thickBot="1">
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
+    <row r="10" spans="2:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
       <c r="D10" s="2"/>
       <c r="E10" s="6"/>
     </row>
-    <row r="11" spans="2:5" ht="18.75">
+    <row r="11" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="2"/>
       <c r="E11" s="3"/>
     </row>
-    <row r="12" spans="2:5" ht="30" customHeight="1">
+    <row r="12" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="2:5" ht="33" customHeight="1">
+    <row r="13" spans="2:5" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="2:5" ht="28.5" customHeight="1">
+    <row r="14" spans="2:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="2"/>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="2:5" ht="18.75">
+    <row r="15" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="2"/>
       <c r="E15" s="3"/>
     </row>
-    <row r="16" spans="2:5" ht="18.75">
+    <row r="16" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="2"/>
       <c r="E16" s="4"/>
     </row>
-    <row r="17" spans="2:5">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -607,19 +651,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="2:5">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="2:5">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="2:5">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -637,34 +681,187 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="J5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:F23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.85546875" customWidth="1"/>
+    <col min="2" max="2" width="31.140625" customWidth="1"/>
+    <col min="3" max="3" width="5.5703125" customWidth="1"/>
+    <col min="4" max="4" width="31.140625" customWidth="1"/>
+    <col min="5" max="5" width="4" customWidth="1"/>
+    <col min="6" max="6" width="31.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="5" spans="10:10">
-      <c r="J5">
-        <v>321313212</v>
+    <row r="1" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B1" s="14"/>
+      <c r="D1" s="14"/>
+    </row>
+    <row r="2" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="F7" s="14"/>
+    </row>
+    <row r="8" spans="2:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B8" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B9" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="F13" s="14"/>
+    </row>
+    <row r="14" spans="2:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B14" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B15" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" s="17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="F19" s="14"/>
+    </row>
+    <row r="20" spans="2:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B20" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" s="18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B21" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F22" s="17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>868.2</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.70866141732283472" right="0.19685039370078741" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup orientation="landscape" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.19685039370078741" right="0.23" top="0.19685039370078741" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/01 DOCUEMENTOS/ETIQ,.LIBROS.xlsx
+++ b/01 DOCUEMENTOS/ETIQ,.LIBROS.xlsx
@@ -9,17 +9,34 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="105" windowWidth="10335" windowHeight="4815"/>
+    <workbookView xWindow="600" yWindow="105" windowWidth="10335" windowHeight="4815" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ETIQUETAS" sheetId="3" r:id="rId1"/>
+    <sheet name="etiquetas lapiz" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="5">
+  <si>
+    <t>Primaria Bilingüe</t>
+  </si>
+  <si>
+    <t>Netzahualcóyotl</t>
+  </si>
+  <si>
+    <t>Damián Hernández Polvo</t>
+  </si>
+  <si>
+    <t>Grado   2° A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Damián Hernández Polvo </t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -81,19 +98,6 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom style="medium">
         <color indexed="64"/>
@@ -111,18 +115,43 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -429,193 +458,758 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:G59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" customWidth="1"/>
-    <col min="2" max="2" width="2.28515625" customWidth="1"/>
-    <col min="3" max="3" width="24" customWidth="1"/>
-    <col min="4" max="4" width="4" customWidth="1"/>
-    <col min="5" max="5" width="24.140625" customWidth="1"/>
-    <col min="6" max="6" width="4" customWidth="1"/>
-    <col min="7" max="7" width="24.140625" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" customWidth="1"/>
+    <col min="2" max="2" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.140625" customWidth="1"/>
+    <col min="4" max="4" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.5703125" customWidth="1"/>
+    <col min="6" max="6" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="G1" s="4"/>
-    </row>
-    <row r="2" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="G3" s="3"/>
-    </row>
-    <row r="4" spans="1:7" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="G5" s="2"/>
-    </row>
-    <row r="6" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="G6" s="4"/>
-    </row>
-    <row r="7" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="1:7" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="G8" s="3"/>
-    </row>
-    <row r="9" spans="1:7" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="G10" s="2"/>
-    </row>
-    <row r="11" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="G11" s="4"/>
-    </row>
-    <row r="12" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="G12" s="1"/>
-    </row>
-    <row r="13" spans="1:7" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="G13" s="3"/>
-    </row>
-    <row r="14" spans="1:7" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="G15" s="2"/>
-    </row>
-    <row r="16" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="G16" s="4"/>
-    </row>
-    <row r="17" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="G17" s="1"/>
-    </row>
-    <row r="18" spans="1:7" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="G18" s="3"/>
-    </row>
-    <row r="19" spans="1:7" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="20" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="G20" s="2"/>
-    </row>
-    <row r="21" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="G21" s="4"/>
-    </row>
-    <row r="22" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="G22" s="1"/>
-    </row>
-    <row r="23" spans="1:7" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="G23" s="3"/>
-    </row>
-    <row r="24" spans="1:7" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="25" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="G25" s="2"/>
-    </row>
-    <row r="26" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="G26" s="4"/>
-    </row>
-    <row r="27" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="G27" s="1"/>
-    </row>
-    <row r="28" spans="1:7" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="G28" s="3"/>
-    </row>
-    <row r="29" spans="1:7" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="30" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="G30" s="2"/>
-    </row>
-    <row r="31" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="G31" s="4"/>
-    </row>
-    <row r="32" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="G32" s="1"/>
-    </row>
-    <row r="33" spans="1:7" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="G33" s="3"/>
-    </row>
+    <row r="1" spans="1:7" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="F1" s="9"/>
+    </row>
+    <row r="2" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="F6" s="8"/>
+    </row>
+    <row r="7" spans="1:7" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="5"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="5"/>
+    </row>
+    <row r="8" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="F12" s="8"/>
+    </row>
+    <row r="13" spans="1:7" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="F13" s="9"/>
+    </row>
+    <row r="14" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="F18" s="8"/>
+    </row>
+    <row r="19" spans="2:6" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="F19" s="9"/>
+    </row>
+    <row r="20" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="F24" s="4"/>
+    </row>
+    <row r="25" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="F25" s="4"/>
+    </row>
+    <row r="26" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D26" s="4"/>
+      <c r="F26" s="4"/>
+    </row>
+    <row r="27" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="F27" s="4"/>
+    </row>
+    <row r="28" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="F28" s="4"/>
+    </row>
+    <row r="29" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="F29" s="4"/>
+    </row>
+    <row r="30" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="F30" s="4"/>
+    </row>
+    <row r="31" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="F31" s="4"/>
+    </row>
+    <row r="32" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="F32" s="4"/>
+    </row>
+    <row r="33" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="F33" s="4"/>
+    </row>
+    <row r="34" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="F34" s="4"/>
+    </row>
+    <row r="35" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="F35" s="4"/>
+    </row>
+    <row r="36" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="F36" s="4"/>
+    </row>
+    <row r="37" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="F37" s="4"/>
+    </row>
+    <row r="38" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="F38" s="4"/>
+    </row>
+    <row r="39" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="F39" s="4"/>
+    </row>
+    <row r="40" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="F40" s="4"/>
+    </row>
+    <row r="41" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="F41" s="4"/>
+    </row>
+    <row r="42" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="F42" s="4"/>
+    </row>
+    <row r="43" spans="2:6" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="F43" s="4"/>
+    </row>
+    <row r="44" spans="2:6" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" spans="2:6" s="5" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="F45" s="6"/>
+    </row>
+    <row r="46" spans="2:6" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B46" s="7"/>
+      <c r="D46" s="7"/>
+      <c r="F46" s="7"/>
+    </row>
+    <row r="47" spans="2:6" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B47" s="8"/>
+      <c r="D47" s="8"/>
+      <c r="F47" s="8"/>
+    </row>
+    <row r="48" spans="2:6" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="F48" s="4"/>
+    </row>
+    <row r="49" spans="2:6" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="50" spans="2:6" s="5" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B50" s="6"/>
+      <c r="D50" s="6"/>
+      <c r="F50" s="6"/>
+    </row>
+    <row r="51" spans="2:6" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B51" s="7"/>
+      <c r="D51" s="7"/>
+      <c r="F51" s="7"/>
+    </row>
+    <row r="52" spans="2:6" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B52" s="8"/>
+      <c r="D52" s="8"/>
+      <c r="F52" s="8"/>
+    </row>
+    <row r="53" spans="2:6" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B53" s="4"/>
+      <c r="D53" s="4"/>
+      <c r="F53" s="4"/>
+    </row>
+    <row r="54" spans="2:6" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="55" spans="2:6" s="5" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B55" s="6"/>
+      <c r="D55" s="6"/>
+      <c r="F55" s="6"/>
+    </row>
+    <row r="56" spans="2:6" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B56" s="7"/>
+      <c r="D56" s="7"/>
+      <c r="F56" s="7"/>
+    </row>
+    <row r="57" spans="2:6" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B57" s="8"/>
+      <c r="D57" s="8"/>
+      <c r="F57" s="8"/>
+    </row>
+    <row r="58" spans="2:6" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B58" s="4"/>
+      <c r="D58" s="4"/>
+      <c r="F58" s="4"/>
+    </row>
+    <row r="59" spans="2:6" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.19685039370078741" right="0.23" top="0.19685039370078741" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G59"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.28515625" customWidth="1"/>
+    <col min="2" max="2" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.140625" customWidth="1"/>
+    <col min="4" max="4" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.5703125" customWidth="1"/>
+    <col min="6" max="6" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="F1" s="9"/>
+    </row>
+    <row r="2" spans="1:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:7" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="F6" s="8"/>
+    </row>
+    <row r="7" spans="1:7" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="5"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="5"/>
+    </row>
+    <row r="8" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:7" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="F12" s="8"/>
+    </row>
+    <row r="13" spans="1:7" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="F13" s="9"/>
+    </row>
+    <row r="14" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:7" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="F17" s="3"/>
+    </row>
+    <row r="18" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="F18" s="8"/>
+    </row>
+    <row r="19" spans="2:6" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="F19" s="9"/>
+    </row>
+    <row r="20" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="2:6" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="F23" s="3"/>
+    </row>
+    <row r="24" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="F24" s="4"/>
+    </row>
+    <row r="25" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="F25" s="4"/>
+    </row>
+    <row r="26" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D26" s="4"/>
+      <c r="F26" s="4"/>
+    </row>
+    <row r="27" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="F27" s="4"/>
+    </row>
+    <row r="28" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="F28" s="4"/>
+    </row>
+    <row r="29" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="F29" s="4"/>
+    </row>
+    <row r="30" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="F30" s="4"/>
+    </row>
+    <row r="31" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="F31" s="4"/>
+    </row>
+    <row r="32" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="F32" s="4"/>
+    </row>
+    <row r="33" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="F33" s="4"/>
+    </row>
+    <row r="34" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="F34" s="4"/>
+    </row>
+    <row r="35" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="F35" s="4"/>
+    </row>
+    <row r="36" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="F36" s="4"/>
+    </row>
+    <row r="37" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="F37" s="4"/>
+    </row>
+    <row r="38" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="F38" s="4"/>
+    </row>
+    <row r="39" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="F39" s="4"/>
+    </row>
+    <row r="40" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="F40" s="4"/>
+    </row>
+    <row r="41" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="F41" s="4"/>
+    </row>
+    <row r="42" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="F42" s="4"/>
+    </row>
+    <row r="43" spans="2:6" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="F43" s="4"/>
+    </row>
+    <row r="44" spans="2:6" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" spans="2:6" s="5" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="F45" s="6"/>
+    </row>
+    <row r="46" spans="2:6" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B46" s="7"/>
+      <c r="D46" s="7"/>
+      <c r="F46" s="7"/>
+    </row>
+    <row r="47" spans="2:6" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B47" s="8"/>
+      <c r="D47" s="8"/>
+      <c r="F47" s="8"/>
+    </row>
+    <row r="48" spans="2:6" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="F48" s="4"/>
+    </row>
+    <row r="49" spans="2:6" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="50" spans="2:6" s="5" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B50" s="6"/>
+      <c r="D50" s="6"/>
+      <c r="F50" s="6"/>
+    </row>
+    <row r="51" spans="2:6" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B51" s="7"/>
+      <c r="D51" s="7"/>
+      <c r="F51" s="7"/>
+    </row>
+    <row r="52" spans="2:6" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B52" s="8"/>
+      <c r="D52" s="8"/>
+      <c r="F52" s="8"/>
+    </row>
+    <row r="53" spans="2:6" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B53" s="4"/>
+      <c r="D53" s="4"/>
+      <c r="F53" s="4"/>
+    </row>
+    <row r="54" spans="2:6" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="55" spans="2:6" s="5" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B55" s="6"/>
+      <c r="D55" s="6"/>
+      <c r="F55" s="6"/>
+    </row>
+    <row r="56" spans="2:6" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B56" s="7"/>
+      <c r="D56" s="7"/>
+      <c r="F56" s="7"/>
+    </row>
+    <row r="57" spans="2:6" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B57" s="8"/>
+      <c r="D57" s="8"/>
+      <c r="F57" s="8"/>
+    </row>
+    <row r="58" spans="2:6" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B58" s="4"/>
+      <c r="D58" s="4"/>
+      <c r="F58" s="4"/>
+    </row>
+    <row r="59" spans="2:6" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <pageMargins left="0.2" right="0.16" top="0.35" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/01 DOCUEMENTOS/ETIQ,.LIBROS.xlsx
+++ b/01 DOCUEMENTOS/ETIQ,.LIBROS.xlsx
@@ -9,18 +9,19 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="105" windowWidth="10335" windowHeight="4815" activeTab="1"/>
+    <workbookView xWindow="600" yWindow="105" windowWidth="10335" windowHeight="4815" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ETIQUETAS" sheetId="3" r:id="rId1"/>
     <sheet name="etiquetas lapiz" sheetId="4" r:id="rId2"/>
+    <sheet name="VENENO" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="6">
   <si>
     <t>Primaria Bilingüe</t>
   </si>
@@ -36,12 +37,15 @@
   <si>
     <t xml:space="preserve">Damián Hernández Polvo </t>
   </si>
+  <si>
+    <t>VENENO</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -74,6 +78,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="36"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -83,7 +95,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -124,11 +136,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -154,6 +179,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -169,6 +206,181 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1439596</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1" descr="Veneno - Wikipedia, la enciclopedia libre"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="895350" y="114299"/>
+          <a:ext cx="763321" cy="733425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1363577</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>981075</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2" descr="Veneno - Wikipedia, la enciclopedia libre"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2505075" y="200025"/>
+          <a:ext cx="1011152" cy="971550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1392152</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>981075</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Imagen 3" descr="Veneno - Wikipedia, la enciclopedia libre"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="704850" y="200025"/>
+          <a:ext cx="1011152" cy="971550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -863,8 +1075,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -889,9 +1101,7 @@
       <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:7" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="3" t="s">
-        <v>2</v>
-      </c>
+      <c r="B3" s="3"/>
       <c r="D3" s="3" t="s">
         <v>2</v>
       </c>
@@ -900,9 +1110,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="B4" s="3"/>
       <c r="D4" s="3" t="s">
         <v>3</v>
       </c>
@@ -930,14 +1138,14 @@
       <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="2"/>
+      <c r="B8" s="11" t="s">
+        <v>5</v>
+      </c>
       <c r="D8" s="2"/>
       <c r="F8" s="2"/>
     </row>
     <row r="9" spans="1:7" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="3" t="s">
-        <v>2</v>
-      </c>
+      <c r="B9" s="12"/>
       <c r="D9" s="3" t="s">
         <v>2</v>
       </c>
@@ -946,9 +1154,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="B10" s="12"/>
       <c r="D10" s="3" t="s">
         <v>3</v>
       </c>
@@ -957,7 +1163,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="3"/>
+      <c r="B11" s="13"/>
       <c r="D11" s="3"/>
       <c r="F11" s="3"/>
     </row>
@@ -1209,7 +1415,44 @@
     </row>
     <row r="59" spans="2:6" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B8:B11"/>
+  </mergeCells>
   <pageMargins left="0.2" right="0.16" top="0.35" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:D4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.85546875" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" customWidth="1"/>
+    <col min="3" max="3" width="7.85546875" customWidth="1"/>
+    <col min="4" max="4" width="25.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" ht="82.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="2:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="2:4" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.19685039370078741" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/01 DOCUEMENTOS/ETIQ,.LIBROS.xlsx
+++ b/01 DOCUEMENTOS/ETIQ,.LIBROS.xlsx
@@ -9,25 +9,20 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="105" windowWidth="10335" windowHeight="4815" activeTab="2"/>
+    <workbookView xWindow="600" yWindow="105" windowWidth="10335" windowHeight="4815"/>
   </bookViews>
   <sheets>
     <sheet name="ETIQUETAS" sheetId="3" r:id="rId1"/>
     <sheet name="etiquetas lapiz" sheetId="4" r:id="rId2"/>
-    <sheet name="VENENO" sheetId="5" r:id="rId3"/>
+    <sheet name="Hoja1" sheetId="6" r:id="rId3"/>
+    <sheet name="VENENO" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="6">
-  <si>
-    <t>Primaria Bilingüe</t>
-  </si>
-  <si>
-    <t>Netzahualcóyotl</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="42">
   <si>
     <t>Damián Hernández Polvo</t>
   </si>
@@ -35,17 +30,131 @@
     <t>Grado   2° A</t>
   </si>
   <si>
-    <t xml:space="preserve">Damián Hernández Polvo </t>
-  </si>
-  <si>
     <t>VENENO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NORMA LEDO PARRA </t>
+  </si>
+  <si>
+    <t>5 DE MAYO  NUM  22 SAN JUAN TULCINGO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DOCUMENTOS Y CONVENIO </t>
+  </si>
+  <si>
+    <t>DIVORCIO</t>
+  </si>
+  <si>
+    <t>ARCADIO LEDO BERISTAIN</t>
+  </si>
+  <si>
+    <t>PROL 11 SUR  12704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COL GUADALUPE HIDALGO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUC  11 SUR </t>
+  </si>
+  <si>
+    <t>MARIA GRACIELA PARRA CARRILLO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CENTRAL DE ABASTOS </t>
+  </si>
+  <si>
+    <t>OBRADOR</t>
+  </si>
+  <si>
+    <t>NORMA LEDO PARRA</t>
+  </si>
+  <si>
+    <t>ARRAYAN 11 SENDERO DEL FRESNO</t>
+  </si>
+  <si>
+    <t>L 166  MZ6</t>
+  </si>
+  <si>
+    <t>SENDERO</t>
+  </si>
+  <si>
+    <t>Priv San Rafael M9 L9</t>
+  </si>
+  <si>
+    <t>Fracc Residencial SAN ANGEL</t>
+  </si>
+  <si>
+    <t>San Andres Cholula</t>
+  </si>
+  <si>
+    <t>JAVIER ELIAS ALONSO LEDO</t>
+  </si>
+  <si>
+    <t>LOTE SB 1-2 D4 MZ S/N</t>
+  </si>
+  <si>
+    <t>ANGELOPOLIS</t>
+  </si>
+  <si>
+    <t>CALZ ZAVALETA 708</t>
+  </si>
+  <si>
+    <t>SANTA CRUZ BUENAVISTA B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZAVALETA </t>
+  </si>
+  <si>
+    <t>102 A PONIENTE 1514</t>
+  </si>
+  <si>
+    <t>ALMACEN</t>
+  </si>
+  <si>
+    <t>DEAN 35</t>
+  </si>
+  <si>
+    <t>Fracc Puerta de Hierro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEAN  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DONACION ALFONSO ALONSO A NORMA LEDO </t>
+  </si>
+  <si>
+    <t>LOTE 9 MZ 5 PUERTA HIERRO***ALGUACIL</t>
+  </si>
+  <si>
+    <t>LOTE 9 Y 11 MZ 15 PUERTA DE HIERRO***DEAN</t>
+  </si>
+  <si>
+    <t>LOTE 6 MZ 11 PUERTA DE HIERRO ***JARCIERIAS</t>
+  </si>
+  <si>
+    <t>TERRENO 18 CENTRAL DE ABASTOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TERRENO 19 CENTRAL DE ABASTOS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TERRENO FRACC SAN ANGEL </t>
+  </si>
+  <si>
+    <t>CUAUTLANCINGO PUEBLA</t>
+  </si>
+  <si>
+    <t>102 A PONIENTE 1510</t>
+  </si>
+  <si>
+    <t>RESERVA TERRITORIAL ATLIXCAYOTL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -86,13 +195,103 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="17"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="5">
@@ -153,11 +352,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -179,6 +375,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -188,8 +387,125 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -670,401 +986,466 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G59"/>
+  <dimension ref="A1:H67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" customWidth="1"/>
-    <col min="2" max="2" width="29.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.140625" customWidth="1"/>
-    <col min="4" max="4" width="29.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.5703125" customWidth="1"/>
-    <col min="6" max="6" width="29.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" style="20" customWidth="1"/>
+    <col min="2" max="2" width="56.140625" style="20" customWidth="1"/>
+    <col min="3" max="3" width="6.140625" style="20" customWidth="1"/>
+    <col min="4" max="4" width="56.140625" style="20" customWidth="1"/>
+    <col min="5" max="5" width="5.5703125" style="20" customWidth="1"/>
+    <col min="6" max="6" width="38.140625" style="20" customWidth="1"/>
+    <col min="7" max="7" width="4.42578125" style="22" customWidth="1"/>
+    <col min="8" max="8" width="4" style="20" customWidth="1"/>
+    <col min="9" max="16384" width="11.42578125" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="F1" s="9"/>
-    </row>
-    <row r="2" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="3" t="s">
+    <row r="1" spans="1:8" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="21"/>
+      <c r="D1" s="21"/>
+    </row>
+    <row r="2" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="23"/>
+    </row>
+    <row r="3" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" s="23"/>
+    </row>
+    <row r="4" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4" s="24"/>
+    </row>
+    <row r="5" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="26"/>
+    </row>
+    <row r="6" spans="1:8" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="G6" s="26"/>
+    </row>
+    <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B7" s="46"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="46"/>
+      <c r="G7" s="26"/>
+    </row>
+    <row r="8" spans="1:8" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="22"/>
+      <c r="B8" s="47"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="22"/>
+    </row>
+    <row r="9" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B9" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="40"/>
+      <c r="D9" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9" s="23"/>
+    </row>
+    <row r="10" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="40"/>
+      <c r="D10" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="F6" s="8"/>
-    </row>
-    <row r="7" spans="1:7" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="5"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="5"/>
-    </row>
-    <row r="8" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="F12" s="8"/>
-    </row>
-    <row r="13" spans="1:7" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="F13" s="9"/>
-    </row>
-    <row r="14" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="F18" s="8"/>
-    </row>
-    <row r="19" spans="2:6" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="F19" s="9"/>
-    </row>
-    <row r="20" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="F24" s="4"/>
-    </row>
-    <row r="25" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="F25" s="4"/>
-    </row>
-    <row r="26" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D26" s="4"/>
-      <c r="F26" s="4"/>
-    </row>
-    <row r="27" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="F27" s="4"/>
-    </row>
-    <row r="28" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="F28" s="4"/>
-    </row>
-    <row r="29" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="F29" s="4"/>
-    </row>
-    <row r="30" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="F30" s="4"/>
-    </row>
-    <row r="31" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="F31" s="4"/>
-    </row>
-    <row r="32" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="F32" s="4"/>
-    </row>
-    <row r="33" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="F33" s="4"/>
-    </row>
-    <row r="34" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="F34" s="4"/>
-    </row>
-    <row r="35" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="F35" s="4"/>
-    </row>
-    <row r="36" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="F36" s="4"/>
-    </row>
-    <row r="37" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="F37" s="4"/>
-    </row>
-    <row r="38" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="F38" s="4"/>
-    </row>
-    <row r="39" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="4"/>
-      <c r="D39" s="4"/>
-      <c r="F39" s="4"/>
-    </row>
-    <row r="40" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="4"/>
-      <c r="D40" s="4"/>
-      <c r="F40" s="4"/>
-    </row>
-    <row r="41" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="4"/>
-      <c r="D41" s="4"/>
-      <c r="F41" s="4"/>
-    </row>
-    <row r="42" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="4"/>
-      <c r="D42" s="4"/>
-      <c r="F42" s="4"/>
-    </row>
-    <row r="43" spans="2:6" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="4"/>
-      <c r="D43" s="4"/>
-      <c r="F43" s="4"/>
-    </row>
-    <row r="44" spans="2:6" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" spans="2:6" s="5" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B45" s="6"/>
-      <c r="D45" s="6"/>
-      <c r="F45" s="6"/>
-    </row>
-    <row r="46" spans="2:6" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B46" s="7"/>
-      <c r="D46" s="7"/>
-      <c r="F46" s="7"/>
-    </row>
-    <row r="47" spans="2:6" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B47" s="8"/>
-      <c r="D47" s="8"/>
-      <c r="F47" s="8"/>
-    </row>
-    <row r="48" spans="2:6" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B48" s="4"/>
-      <c r="D48" s="4"/>
-      <c r="F48" s="4"/>
-    </row>
-    <row r="49" spans="2:6" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="50" spans="2:6" s="5" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B50" s="6"/>
-      <c r="D50" s="6"/>
-      <c r="F50" s="6"/>
-    </row>
-    <row r="51" spans="2:6" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B51" s="7"/>
-      <c r="D51" s="7"/>
-      <c r="F51" s="7"/>
-    </row>
-    <row r="52" spans="2:6" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B52" s="8"/>
-      <c r="D52" s="8"/>
-      <c r="F52" s="8"/>
-    </row>
-    <row r="53" spans="2:6" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B53" s="4"/>
-      <c r="D53" s="4"/>
-      <c r="F53" s="4"/>
-    </row>
-    <row r="54" spans="2:6" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="55" spans="2:6" s="5" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B55" s="6"/>
-      <c r="D55" s="6"/>
-      <c r="F55" s="6"/>
-    </row>
-    <row r="56" spans="2:6" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B56" s="7"/>
-      <c r="D56" s="7"/>
-      <c r="F56" s="7"/>
-    </row>
-    <row r="57" spans="2:6" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B57" s="8"/>
-      <c r="D57" s="8"/>
-      <c r="F57" s="8"/>
-    </row>
-    <row r="58" spans="2:6" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B58" s="4"/>
-      <c r="D58" s="4"/>
-      <c r="F58" s="4"/>
-    </row>
-    <row r="59" spans="2:6" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+      <c r="G10" s="23"/>
+    </row>
+    <row r="11" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="19"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="G11" s="24"/>
+    </row>
+    <row r="12" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="25"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="16"/>
+      <c r="G12" s="26"/>
+    </row>
+    <row r="13" spans="1:8" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="27"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="45"/>
+      <c r="G13" s="26"/>
+    </row>
+    <row r="14" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B14" s="46"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="46"/>
+      <c r="G14" s="26"/>
+    </row>
+    <row r="15" spans="1:8" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="52"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="52"/>
+    </row>
+    <row r="16" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B16" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="40"/>
+      <c r="D16" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="G16" s="23"/>
+    </row>
+    <row r="17" spans="2:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B17" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="40"/>
+      <c r="D17" s="50" t="s">
+        <v>8</v>
+      </c>
+      <c r="G17" s="23"/>
+    </row>
+    <row r="18" spans="2:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B18" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="40"/>
+      <c r="D18" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="G18" s="24"/>
+    </row>
+    <row r="19" spans="2:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B19" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="40"/>
+      <c r="D19" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="G19" s="26"/>
+    </row>
+    <row r="20" spans="2:7" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="27"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="45"/>
+      <c r="G20" s="26"/>
+    </row>
+    <row r="21" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B21" s="46"/>
+      <c r="C21" s="40"/>
+      <c r="D21" s="46"/>
+      <c r="G21" s="26"/>
+    </row>
+    <row r="22" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B22" s="46"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="46"/>
+      <c r="G22" s="26"/>
+    </row>
+    <row r="23" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B23" s="46"/>
+      <c r="C23" s="40"/>
+      <c r="D23" s="46"/>
+      <c r="G23" s="26"/>
+    </row>
+    <row r="24" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B24" s="46"/>
+      <c r="C24" s="40"/>
+      <c r="D24" s="46"/>
+      <c r="G24" s="26"/>
+    </row>
+    <row r="25" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B25" s="46"/>
+      <c r="C25" s="40"/>
+      <c r="D25" s="46"/>
+      <c r="G25" s="26"/>
+    </row>
+    <row r="26" spans="2:7" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="52"/>
+      <c r="C26" s="40"/>
+      <c r="D26" s="52"/>
+    </row>
+    <row r="27" spans="2:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B27" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" s="40"/>
+      <c r="D27" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="G27" s="23"/>
+    </row>
+    <row r="28" spans="2:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C28" s="40"/>
+      <c r="D28" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="G28" s="23"/>
+    </row>
+    <row r="29" spans="2:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="40"/>
+      <c r="D29" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="G29" s="24"/>
+    </row>
+    <row r="30" spans="2:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="40"/>
+      <c r="D30" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="G30" s="26"/>
+    </row>
+    <row r="31" spans="2:7" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="45"/>
+      <c r="C31" s="40"/>
+      <c r="D31" s="45"/>
+      <c r="G31" s="26"/>
+    </row>
+    <row r="32" spans="2:7" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="46"/>
+      <c r="C32" s="40"/>
+      <c r="D32" s="46"/>
+      <c r="G32" s="26"/>
+    </row>
+    <row r="33" spans="2:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B33" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="C33" s="40"/>
+      <c r="D33" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="G33" s="26"/>
+    </row>
+    <row r="34" spans="2:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B34" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="C34" s="40"/>
+      <c r="D34" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="G34" s="26"/>
+    </row>
+    <row r="35" spans="2:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="C35" s="40"/>
+      <c r="D35" s="53" t="s">
+        <v>41</v>
+      </c>
+      <c r="G35" s="26"/>
+    </row>
+    <row r="36" spans="2:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="C36" s="40"/>
+      <c r="D36" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="G36" s="26"/>
+    </row>
+    <row r="37" spans="2:7" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="45"/>
+      <c r="C37" s="40"/>
+      <c r="D37" s="45"/>
+      <c r="G37" s="26"/>
+    </row>
+    <row r="38" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="26"/>
+      <c r="D38" s="26"/>
+      <c r="G38" s="26"/>
+    </row>
+    <row r="39" spans="2:7" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="26"/>
+      <c r="D39" s="26"/>
+      <c r="G39" s="26"/>
+    </row>
+    <row r="40" spans="2:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B40" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="D40" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="G40" s="26"/>
+    </row>
+    <row r="41" spans="2:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B41" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="D41" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="G41" s="26"/>
+    </row>
+    <row r="42" spans="2:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B42" s="53" t="s">
+        <v>25</v>
+      </c>
+      <c r="D42" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="G42" s="26"/>
+    </row>
+    <row r="43" spans="2:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B43" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="D43" s="50" t="s">
+        <v>31</v>
+      </c>
+      <c r="G43" s="26"/>
+    </row>
+    <row r="44" spans="2:7" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="45"/>
+      <c r="D44" s="45"/>
+      <c r="G44" s="26"/>
+    </row>
+    <row r="45" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="26"/>
+      <c r="D45" s="26"/>
+      <c r="G45" s="26"/>
+    </row>
+    <row r="46" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="26"/>
+      <c r="D46" s="26"/>
+      <c r="G46" s="26"/>
+    </row>
+    <row r="47" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="26"/>
+      <c r="D47" s="26"/>
+      <c r="G47" s="26"/>
+    </row>
+    <row r="48" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="26"/>
+      <c r="D48" s="26"/>
+      <c r="G48" s="26"/>
+    </row>
+    <row r="49" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="26"/>
+      <c r="D49" s="26"/>
+      <c r="G49" s="26"/>
+    </row>
+    <row r="50" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="26"/>
+      <c r="D50" s="26"/>
+      <c r="G50" s="26"/>
+    </row>
+    <row r="51" spans="2:7" s="22" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="26"/>
+      <c r="D51" s="26"/>
+      <c r="G51" s="26"/>
+    </row>
+    <row r="52" spans="2:7" s="22" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="53" spans="2:7" s="22" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B53" s="23"/>
+      <c r="D53" s="23"/>
+      <c r="G53" s="23"/>
+    </row>
+    <row r="54" spans="2:7" s="22" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B54" s="24"/>
+      <c r="D54" s="24"/>
+      <c r="G54" s="24"/>
+    </row>
+    <row r="55" spans="2:7" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B55" s="26"/>
+      <c r="D55" s="26"/>
+      <c r="G55" s="26"/>
+    </row>
+    <row r="56" spans="2:7" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B56" s="26"/>
+      <c r="D56" s="26"/>
+      <c r="G56" s="26"/>
+    </row>
+    <row r="57" spans="2:7" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="58" spans="2:7" s="22" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B58" s="23"/>
+      <c r="D58" s="23"/>
+      <c r="G58" s="23"/>
+    </row>
+    <row r="59" spans="2:7" s="22" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B59" s="24"/>
+      <c r="D59" s="24"/>
+      <c r="G59" s="24"/>
+    </row>
+    <row r="60" spans="2:7" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B60" s="26"/>
+      <c r="D60" s="26"/>
+      <c r="G60" s="26"/>
+    </row>
+    <row r="61" spans="2:7" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B61" s="26"/>
+      <c r="D61" s="26"/>
+      <c r="G61" s="26"/>
+    </row>
+    <row r="62" spans="2:7" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="63" spans="2:7" s="22" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B63" s="23"/>
+      <c r="D63" s="23"/>
+      <c r="G63" s="23"/>
+    </row>
+    <row r="64" spans="2:7" s="22" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B64" s="24"/>
+      <c r="D64" s="24"/>
+      <c r="G64" s="24"/>
+    </row>
+    <row r="65" spans="2:7" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B65" s="26"/>
+      <c r="D65" s="26"/>
+      <c r="G65" s="26"/>
+    </row>
+    <row r="66" spans="2:7" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B66" s="26"/>
+      <c r="D66" s="26"/>
+      <c r="G66" s="26"/>
+    </row>
+    <row r="67" spans="2:7" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.19685039370078741" right="0.23" top="0.19685039370078741" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1091,329 +1472,329 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="F1" s="9"/>
+      <c r="B1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="F1" s="8"/>
     </row>
     <row r="2" spans="1:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="F2" s="2"/>
+      <c r="B2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:7" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="3"/>
-      <c r="D3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>2</v>
+      <c r="B3" s="2"/>
+      <c r="D3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="3"/>
-      <c r="D4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>3</v>
+      <c r="B4" s="2"/>
+      <c r="D4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="F5" s="3"/>
+      <c r="B5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="F5" s="2"/>
     </row>
     <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="F6" s="8"/>
+      <c r="B6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="F6" s="7"/>
     </row>
     <row r="7" spans="1:7" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="5"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="5"/>
+      <c r="A7" s="4"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="4"/>
     </row>
     <row r="8" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="2"/>
-      <c r="F8" s="2"/>
+        <v>2</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:7" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="12"/>
-      <c r="D9" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>2</v>
+      <c r="D9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="12"/>
-      <c r="D10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>3</v>
+      <c r="D10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="13"/>
-      <c r="D11" s="3"/>
-      <c r="F11" s="3"/>
+      <c r="D11" s="2"/>
+      <c r="F11" s="2"/>
     </row>
     <row r="12" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="F12" s="8"/>
+      <c r="B12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="F12" s="7"/>
     </row>
     <row r="13" spans="1:7" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="F13" s="9"/>
+      <c r="B13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="F13" s="8"/>
     </row>
     <row r="14" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="F14" s="2"/>
+      <c r="B14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:7" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>2</v>
+      <c r="B15" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>3</v>
+      <c r="B16" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="F17" s="3"/>
+      <c r="B17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="F17" s="2"/>
     </row>
     <row r="18" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="F18" s="8"/>
+      <c r="B18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="F18" s="7"/>
     </row>
     <row r="19" spans="2:6" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="F19" s="9"/>
+      <c r="B19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="F19" s="8"/>
     </row>
     <row r="20" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="F20" s="2"/>
+      <c r="B20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="F20" s="1"/>
     </row>
     <row r="21" spans="2:6" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>2</v>
+      <c r="B21" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="2:6" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>3</v>
+      <c r="B22" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="F23" s="3"/>
+      <c r="B23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="F23" s="2"/>
     </row>
     <row r="24" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="F24" s="4"/>
+      <c r="B24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="F24" s="3"/>
     </row>
     <row r="25" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="F25" s="4"/>
+      <c r="B25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="F25" s="3"/>
     </row>
     <row r="26" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D26" s="4"/>
-      <c r="F26" s="4"/>
+      <c r="D26" s="3"/>
+      <c r="F26" s="3"/>
     </row>
     <row r="27" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="F27" s="4"/>
+      <c r="B27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="F27" s="3"/>
     </row>
     <row r="28" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="F28" s="4"/>
+      <c r="B28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="F28" s="3"/>
     </row>
     <row r="29" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="F29" s="4"/>
+      <c r="B29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="F29" s="3"/>
     </row>
     <row r="30" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="F30" s="4"/>
+      <c r="B30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="F30" s="3"/>
     </row>
     <row r="31" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="F31" s="4"/>
+      <c r="B31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="F31" s="3"/>
     </row>
     <row r="32" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="F32" s="4"/>
+      <c r="B32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="F32" s="3"/>
     </row>
     <row r="33" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="F33" s="4"/>
+      <c r="B33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="F33" s="3"/>
     </row>
     <row r="34" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="F34" s="4"/>
+      <c r="B34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="F34" s="3"/>
     </row>
     <row r="35" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="F35" s="4"/>
+      <c r="B35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="F35" s="3"/>
     </row>
     <row r="36" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="F36" s="4"/>
+      <c r="B36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="F36" s="3"/>
     </row>
     <row r="37" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="F37" s="4"/>
+      <c r="B37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="F37" s="3"/>
     </row>
     <row r="38" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="F38" s="4"/>
+      <c r="B38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="F38" s="3"/>
     </row>
     <row r="39" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="4"/>
-      <c r="D39" s="4"/>
-      <c r="F39" s="4"/>
+      <c r="B39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="F39" s="3"/>
     </row>
     <row r="40" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="4"/>
-      <c r="D40" s="4"/>
-      <c r="F40" s="4"/>
+      <c r="B40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="F40" s="3"/>
     </row>
     <row r="41" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="4"/>
-      <c r="D41" s="4"/>
-      <c r="F41" s="4"/>
+      <c r="B41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="F41" s="3"/>
     </row>
     <row r="42" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="4"/>
-      <c r="D42" s="4"/>
-      <c r="F42" s="4"/>
-    </row>
-    <row r="43" spans="2:6" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="4"/>
-      <c r="D43" s="4"/>
-      <c r="F43" s="4"/>
-    </row>
-    <row r="44" spans="2:6" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" spans="2:6" s="5" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B45" s="6"/>
-      <c r="D45" s="6"/>
-      <c r="F45" s="6"/>
-    </row>
-    <row r="46" spans="2:6" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B46" s="7"/>
-      <c r="D46" s="7"/>
-      <c r="F46" s="7"/>
-    </row>
-    <row r="47" spans="2:6" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B47" s="8"/>
-      <c r="D47" s="8"/>
-      <c r="F47" s="8"/>
-    </row>
-    <row r="48" spans="2:6" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B48" s="4"/>
-      <c r="D48" s="4"/>
-      <c r="F48" s="4"/>
-    </row>
-    <row r="49" spans="2:6" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="50" spans="2:6" s="5" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B50" s="6"/>
-      <c r="D50" s="6"/>
-      <c r="F50" s="6"/>
-    </row>
-    <row r="51" spans="2:6" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B51" s="7"/>
-      <c r="D51" s="7"/>
-      <c r="F51" s="7"/>
-    </row>
-    <row r="52" spans="2:6" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B52" s="8"/>
-      <c r="D52" s="8"/>
-      <c r="F52" s="8"/>
-    </row>
-    <row r="53" spans="2:6" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B53" s="4"/>
-      <c r="D53" s="4"/>
-      <c r="F53" s="4"/>
-    </row>
-    <row r="54" spans="2:6" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="55" spans="2:6" s="5" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B55" s="6"/>
-      <c r="D55" s="6"/>
-      <c r="F55" s="6"/>
-    </row>
-    <row r="56" spans="2:6" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B56" s="7"/>
-      <c r="D56" s="7"/>
-      <c r="F56" s="7"/>
-    </row>
-    <row r="57" spans="2:6" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B57" s="8"/>
-      <c r="D57" s="8"/>
-      <c r="F57" s="8"/>
-    </row>
-    <row r="58" spans="2:6" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B58" s="4"/>
-      <c r="D58" s="4"/>
-      <c r="F58" s="4"/>
-    </row>
-    <row r="59" spans="2:6" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+      <c r="B42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="F42" s="3"/>
+    </row>
+    <row r="43" spans="2:6" s="4" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="F43" s="3"/>
+    </row>
+    <row r="44" spans="2:6" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" spans="2:6" s="4" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B45" s="5"/>
+      <c r="D45" s="5"/>
+      <c r="F45" s="5"/>
+    </row>
+    <row r="46" spans="2:6" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B46" s="6"/>
+      <c r="D46" s="6"/>
+      <c r="F46" s="6"/>
+    </row>
+    <row r="47" spans="2:6" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B47" s="7"/>
+      <c r="D47" s="7"/>
+      <c r="F47" s="7"/>
+    </row>
+    <row r="48" spans="2:6" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B48" s="3"/>
+      <c r="D48" s="3"/>
+      <c r="F48" s="3"/>
+    </row>
+    <row r="49" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="50" spans="2:6" s="4" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B50" s="5"/>
+      <c r="D50" s="5"/>
+      <c r="F50" s="5"/>
+    </row>
+    <row r="51" spans="2:6" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B51" s="6"/>
+      <c r="D51" s="6"/>
+      <c r="F51" s="6"/>
+    </row>
+    <row r="52" spans="2:6" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B52" s="7"/>
+      <c r="D52" s="7"/>
+      <c r="F52" s="7"/>
+    </row>
+    <row r="53" spans="2:6" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B53" s="3"/>
+      <c r="D53" s="3"/>
+      <c r="F53" s="3"/>
+    </row>
+    <row r="54" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="55" spans="2:6" s="4" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B55" s="5"/>
+      <c r="D55" s="5"/>
+      <c r="F55" s="5"/>
+    </row>
+    <row r="56" spans="2:6" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B56" s="6"/>
+      <c r="D56" s="6"/>
+      <c r="F56" s="6"/>
+    </row>
+    <row r="57" spans="2:6" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B57" s="7"/>
+      <c r="D57" s="7"/>
+      <c r="F57" s="7"/>
+    </row>
+    <row r="58" spans="2:6" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B58" s="3"/>
+      <c r="D58" s="3"/>
+      <c r="F58" s="3"/>
+    </row>
+    <row r="59" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B8:B11"/>
@@ -1426,9 +1807,441 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H66"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32:D36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.28515625" style="20" customWidth="1"/>
+    <col min="2" max="2" width="56.42578125" style="20" customWidth="1"/>
+    <col min="3" max="3" width="6.140625" style="20" customWidth="1"/>
+    <col min="4" max="4" width="50" style="20" customWidth="1"/>
+    <col min="5" max="5" width="5.5703125" style="20" customWidth="1"/>
+    <col min="6" max="6" width="38.140625" style="20" customWidth="1"/>
+    <col min="7" max="7" width="29.85546875" style="22" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4" style="20" customWidth="1"/>
+    <col min="9" max="16384" width="11.42578125" style="20"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="21"/>
+      <c r="D1" s="21"/>
+    </row>
+    <row r="2" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B2" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="23"/>
+    </row>
+    <row r="3" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="23"/>
+    </row>
+    <row r="4" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="19"/>
+      <c r="G4" s="24"/>
+    </row>
+    <row r="5" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="16"/>
+      <c r="D5" s="25"/>
+      <c r="G5" s="26"/>
+    </row>
+    <row r="6" spans="1:8" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="G6" s="26"/>
+    </row>
+    <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="G7" s="26"/>
+    </row>
+    <row r="8" spans="1:8" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="22"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="22"/>
+    </row>
+    <row r="9" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B9" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="23"/>
+    </row>
+    <row r="10" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B10" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="G10" s="23"/>
+    </row>
+    <row r="11" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B11" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="24"/>
+    </row>
+    <row r="12" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B12" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="26"/>
+    </row>
+    <row r="13" spans="1:8" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="G13" s="26"/>
+    </row>
+    <row r="14" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="G14" s="26"/>
+    </row>
+    <row r="15" spans="1:8" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="21"/>
+      <c r="D15" s="21"/>
+    </row>
+    <row r="16" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B16" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" s="23"/>
+    </row>
+    <row r="17" spans="2:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" s="23"/>
+    </row>
+    <row r="18" spans="2:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="24"/>
+    </row>
+    <row r="19" spans="2:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="G19" s="26"/>
+    </row>
+    <row r="20" spans="2:7" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="27"/>
+      <c r="D20" s="27"/>
+      <c r="G20" s="26"/>
+    </row>
+    <row r="21" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B21" s="26"/>
+      <c r="D21" s="26"/>
+      <c r="G21" s="26"/>
+    </row>
+    <row r="22" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B22" s="26"/>
+      <c r="D22" s="26"/>
+      <c r="G22" s="26"/>
+    </row>
+    <row r="23" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B23" s="26"/>
+      <c r="D23" s="26"/>
+      <c r="G23" s="26"/>
+    </row>
+    <row r="24" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B24" s="26"/>
+      <c r="D24" s="26"/>
+      <c r="G24" s="26"/>
+    </row>
+    <row r="25" spans="2:7" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="21"/>
+      <c r="D25" s="21"/>
+    </row>
+    <row r="26" spans="2:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B26" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="D26" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="G26" s="23"/>
+    </row>
+    <row r="27" spans="2:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D27" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="G27" s="23"/>
+    </row>
+    <row r="28" spans="2:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="D28" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="G28" s="24"/>
+    </row>
+    <row r="29" spans="2:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D29" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="G29" s="26"/>
+    </row>
+    <row r="30" spans="2:7" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="27"/>
+      <c r="D30" s="27"/>
+      <c r="G30" s="26"/>
+    </row>
+    <row r="31" spans="2:7" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="26"/>
+      <c r="D31" s="26"/>
+      <c r="G31" s="26"/>
+    </row>
+    <row r="32" spans="2:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B32" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="G32" s="26"/>
+    </row>
+    <row r="33" spans="2:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B33" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="G33" s="26"/>
+    </row>
+    <row r="34" spans="2:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B34" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D34" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="G34" s="26"/>
+    </row>
+    <row r="35" spans="2:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B35" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D35" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="G35" s="26"/>
+    </row>
+    <row r="36" spans="2:7" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="27"/>
+      <c r="D36" s="27"/>
+      <c r="G36" s="26"/>
+    </row>
+    <row r="37" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="26"/>
+      <c r="D37" s="26"/>
+      <c r="G37" s="26"/>
+    </row>
+    <row r="38" spans="2:7" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="26"/>
+      <c r="D38" s="26"/>
+      <c r="G38" s="26"/>
+    </row>
+    <row r="39" spans="2:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="D39" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="G39" s="26"/>
+    </row>
+    <row r="40" spans="2:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B40" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D40" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="G40" s="26"/>
+    </row>
+    <row r="41" spans="2:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="D41" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="G41" s="26"/>
+    </row>
+    <row r="42" spans="2:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="D42" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="G42" s="26"/>
+    </row>
+    <row r="43" spans="2:7" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B43" s="34"/>
+      <c r="D43" s="34"/>
+      <c r="G43" s="26"/>
+    </row>
+    <row r="44" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="26"/>
+      <c r="D44" s="26"/>
+      <c r="G44" s="26"/>
+    </row>
+    <row r="45" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="26"/>
+      <c r="D45" s="26"/>
+      <c r="G45" s="26"/>
+    </row>
+    <row r="46" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="26"/>
+      <c r="D46" s="26"/>
+      <c r="G46" s="26"/>
+    </row>
+    <row r="47" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="26"/>
+      <c r="D47" s="26"/>
+      <c r="G47" s="26"/>
+    </row>
+    <row r="48" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="26"/>
+      <c r="D48" s="26"/>
+      <c r="G48" s="26"/>
+    </row>
+    <row r="49" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="26"/>
+      <c r="D49" s="26"/>
+      <c r="G49" s="26"/>
+    </row>
+    <row r="50" spans="2:7" s="22" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="26"/>
+      <c r="D50" s="26"/>
+      <c r="G50" s="26"/>
+    </row>
+    <row r="51" spans="2:7" s="22" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" spans="2:7" s="22" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B52" s="23"/>
+      <c r="D52" s="23"/>
+      <c r="G52" s="23"/>
+    </row>
+    <row r="53" spans="2:7" s="22" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B53" s="24"/>
+      <c r="D53" s="24"/>
+      <c r="G53" s="24"/>
+    </row>
+    <row r="54" spans="2:7" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B54" s="26"/>
+      <c r="D54" s="26"/>
+      <c r="G54" s="26"/>
+    </row>
+    <row r="55" spans="2:7" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B55" s="26"/>
+      <c r="D55" s="26"/>
+      <c r="G55" s="26"/>
+    </row>
+    <row r="56" spans="2:7" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="57" spans="2:7" s="22" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B57" s="23"/>
+      <c r="D57" s="23"/>
+      <c r="G57" s="23"/>
+    </row>
+    <row r="58" spans="2:7" s="22" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B58" s="24"/>
+      <c r="D58" s="24"/>
+      <c r="G58" s="24"/>
+    </row>
+    <row r="59" spans="2:7" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B59" s="26"/>
+      <c r="D59" s="26"/>
+      <c r="G59" s="26"/>
+    </row>
+    <row r="60" spans="2:7" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B60" s="26"/>
+      <c r="D60" s="26"/>
+      <c r="G60" s="26"/>
+    </row>
+    <row r="61" spans="2:7" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="62" spans="2:7" s="22" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B62" s="23"/>
+      <c r="D62" s="23"/>
+      <c r="G62" s="23"/>
+    </row>
+    <row r="63" spans="2:7" s="22" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B63" s="24"/>
+      <c r="D63" s="24"/>
+      <c r="G63" s="24"/>
+    </row>
+    <row r="64" spans="2:7" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B64" s="26"/>
+      <c r="D64" s="26"/>
+      <c r="G64" s="26"/>
+    </row>
+    <row r="65" spans="2:7" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B65" s="26"/>
+      <c r="D65" s="26"/>
+      <c r="G65" s="26"/>
+    </row>
+    <row r="66" spans="2:7" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
@@ -1443,11 +2256,11 @@
     <row r="2" spans="2:4" ht="82.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="2:4" ht="78" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>5</v>
+      <c r="B4" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/01 DOCUEMENTOS/ETIQ,.LIBROS.xlsx
+++ b/01 DOCUEMENTOS/ETIQ,.LIBROS.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="59">
   <si>
     <t>Damián Hernández Polvo</t>
   </si>
@@ -148,13 +148,64 @@
   </si>
   <si>
     <t>RESERVA TERRITORIAL ATLIXCAYOTL</t>
+  </si>
+  <si>
+    <t>13) MARIA GRACIELA PARRA CARRILLO</t>
+  </si>
+  <si>
+    <t>CIRCUITO INT BODEGA 103</t>
+  </si>
+  <si>
+    <t>HERRADURA</t>
+  </si>
+  <si>
+    <t>14) NORMA LEDO PARRA</t>
+  </si>
+  <si>
+    <t>LOTE 18 CENTRAL DE ABASTOS</t>
+  </si>
+  <si>
+    <t>2A SECC</t>
+  </si>
+  <si>
+    <t>15) NORMA LEDO PARRA</t>
+  </si>
+  <si>
+    <t>LOTE 19 CENTRAL DE ABASTOS</t>
+  </si>
+  <si>
+    <t>16) NORMA LEDO PARRA</t>
+  </si>
+  <si>
+    <t>SENDEROS DEL FRESNO</t>
+  </si>
+  <si>
+    <t>188-189-190</t>
+  </si>
+  <si>
+    <t>17) NORMA LEDO PARRA</t>
+  </si>
+  <si>
+    <t>VERDURAS</t>
+  </si>
+  <si>
+    <t>CAL ZAVALETA #706</t>
+  </si>
+  <si>
+    <t>18) NORMA LEDO PARRA</t>
+  </si>
+  <si>
+    <t>CALLE 3RA BENITO JUAREZ</t>
+  </si>
+  <si>
+    <t>COL GUADALUPE HIDALGO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -279,6 +330,38 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -352,7 +435,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -378,6 +461,87 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -387,125 +551,41 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -986,469 +1066,460 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H67"/>
+  <dimension ref="A1:H64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" style="20" customWidth="1"/>
-    <col min="2" max="2" width="56.140625" style="20" customWidth="1"/>
-    <col min="3" max="3" width="6.140625" style="20" customWidth="1"/>
-    <col min="4" max="4" width="56.140625" style="20" customWidth="1"/>
-    <col min="5" max="5" width="5.5703125" style="20" customWidth="1"/>
-    <col min="6" max="6" width="38.140625" style="20" customWidth="1"/>
-    <col min="7" max="7" width="4.42578125" style="22" customWidth="1"/>
-    <col min="8" max="8" width="4" style="20" customWidth="1"/>
-    <col min="9" max="16384" width="11.42578125" style="20"/>
+    <col min="1" max="1" width="5" style="17" customWidth="1"/>
+    <col min="2" max="2" width="36.140625" style="17" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" style="17" customWidth="1"/>
+    <col min="4" max="4" width="38" style="44" customWidth="1"/>
+    <col min="5" max="5" width="5.5703125" style="17" customWidth="1"/>
+    <col min="6" max="6" width="38.140625" style="17" customWidth="1"/>
+    <col min="7" max="7" width="4.42578125" style="19" customWidth="1"/>
+    <col min="8" max="8" width="4" style="17" customWidth="1"/>
+    <col min="9" max="16384" width="11.42578125" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="21"/>
-      <c r="D1" s="21"/>
-    </row>
-    <row r="2" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="G2" s="23"/>
+    <row r="1" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="42"/>
+    </row>
+    <row r="2" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="51" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="42"/>
+      <c r="D2" s="52" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" s="20"/>
     </row>
     <row r="3" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="G3" s="23"/>
+      <c r="B3" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42" t="s">
+        <v>51</v>
+      </c>
+      <c r="G3" s="20"/>
     </row>
     <row r="4" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="D4" s="35" t="s">
-        <v>37</v>
-      </c>
-      <c r="G4" s="24"/>
-    </row>
-    <row r="5" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="G5" s="26"/>
-    </row>
-    <row r="6" spans="1:8" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="G6" s="26"/>
-    </row>
-    <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="46"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="46"/>
-      <c r="G7" s="26"/>
-    </row>
-    <row r="8" spans="1:8" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="22"/>
-      <c r="B8" s="47"/>
-      <c r="C8" s="48"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="22"/>
-    </row>
-    <row r="9" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="41" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="40"/>
-      <c r="D9" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="G9" s="23"/>
-    </row>
-    <row r="10" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="40"/>
-      <c r="D10" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="G10" s="23"/>
-    </row>
-    <row r="11" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="19"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="G11" s="24"/>
-    </row>
-    <row r="12" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="25"/>
-      <c r="C12" s="40"/>
-      <c r="D12" s="16"/>
-      <c r="G12" s="26"/>
-    </row>
-    <row r="13" spans="1:8" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="27"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="45"/>
-      <c r="G13" s="26"/>
-    </row>
-    <row r="14" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="46"/>
-      <c r="C14" s="40"/>
-      <c r="D14" s="46"/>
-      <c r="G14" s="26"/>
-    </row>
-    <row r="15" spans="1:8" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="52"/>
-      <c r="C15" s="40"/>
-      <c r="D15" s="52"/>
-    </row>
-    <row r="16" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="41" t="s">
+      <c r="B4" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42" t="s">
+        <v>52</v>
+      </c>
+      <c r="G4" s="21"/>
+    </row>
+    <row r="5" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="42"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="41"/>
+      <c r="G5" s="23"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="36"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="36"/>
+      <c r="G6" s="23"/>
+    </row>
+    <row r="7" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="19"/>
+      <c r="B7" s="36"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="19"/>
+    </row>
+    <row r="8" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="37"/>
+      <c r="D8" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="G8" s="20"/>
+    </row>
+    <row r="9" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="37"/>
+      <c r="D9" s="42" t="s">
+        <v>54</v>
+      </c>
+      <c r="G9" s="20"/>
+    </row>
+    <row r="10" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="37"/>
+      <c r="D10" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="G10" s="21"/>
+    </row>
+    <row r="11" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="23"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="36"/>
+      <c r="G11" s="23"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="36"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="36"/>
+      <c r="G12" s="23"/>
+    </row>
+    <row r="13" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C13" s="37"/>
+    </row>
+    <row r="14" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="45" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="37"/>
+      <c r="D14" s="45" t="s">
+        <v>56</v>
+      </c>
+      <c r="G14" s="20"/>
+    </row>
+    <row r="15" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="47" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="37"/>
+      <c r="D15" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="G15" s="20"/>
+    </row>
+    <row r="16" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="37"/>
+      <c r="D16" s="44" t="s">
+        <v>58</v>
+      </c>
+      <c r="G16" s="21"/>
+    </row>
+    <row r="17" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="42"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="47"/>
+      <c r="G17" s="23"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B18" s="36"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="36"/>
+      <c r="G18" s="23"/>
+    </row>
+    <row r="19" spans="2:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="36"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="36"/>
+      <c r="G19" s="23"/>
+    </row>
+    <row r="20" spans="2:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="37"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="47"/>
+    </row>
+    <row r="21" spans="2:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="40"/>
-      <c r="D16" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="G16" s="23"/>
-    </row>
-    <row r="17" spans="2:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17" s="40"/>
-      <c r="D17" s="50" t="s">
-        <v>8</v>
-      </c>
-      <c r="G17" s="23"/>
-    </row>
-    <row r="18" spans="2:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B18" s="15" t="s">
+      <c r="C21" s="37"/>
+      <c r="D21" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="G21" s="20"/>
+    </row>
+    <row r="22" spans="2:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" s="37"/>
+      <c r="D22" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="G22" s="20"/>
+    </row>
+    <row r="23" spans="2:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="40"/>
-      <c r="D18" s="51" t="s">
-        <v>9</v>
-      </c>
-      <c r="G18" s="24"/>
-    </row>
-    <row r="19" spans="2:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B19" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C19" s="40"/>
-      <c r="D19" s="50" t="s">
-        <v>10</v>
-      </c>
-      <c r="G19" s="26"/>
-    </row>
-    <row r="20" spans="2:7" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="27"/>
-      <c r="C20" s="40"/>
-      <c r="D20" s="45"/>
-      <c r="G20" s="26"/>
-    </row>
-    <row r="21" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B21" s="46"/>
-      <c r="C21" s="40"/>
-      <c r="D21" s="46"/>
-      <c r="G21" s="26"/>
-    </row>
-    <row r="22" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B22" s="46"/>
-      <c r="C22" s="40"/>
-      <c r="D22" s="46"/>
-      <c r="G22" s="26"/>
-    </row>
-    <row r="23" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B23" s="46"/>
-      <c r="C23" s="40"/>
-      <c r="D23" s="46"/>
-      <c r="G23" s="26"/>
-    </row>
-    <row r="24" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B24" s="46"/>
-      <c r="C24" s="40"/>
-      <c r="D24" s="46"/>
-      <c r="G24" s="26"/>
-    </row>
-    <row r="25" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B25" s="46"/>
-      <c r="C25" s="40"/>
-      <c r="D25" s="46"/>
-      <c r="G25" s="26"/>
-    </row>
-    <row r="26" spans="2:7" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="52"/>
-      <c r="C26" s="40"/>
-      <c r="D26" s="52"/>
-    </row>
-    <row r="27" spans="2:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B27" s="49" t="s">
-        <v>11</v>
-      </c>
-      <c r="C27" s="40"/>
-      <c r="D27" s="39" t="s">
+      <c r="C23" s="37"/>
+      <c r="D23" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="G23" s="21"/>
+    </row>
+    <row r="24" spans="2:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="45" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" s="37"/>
+      <c r="D24" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="G24" s="23"/>
+    </row>
+    <row r="25" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="45"/>
+      <c r="C25" s="37"/>
+      <c r="D25" s="36"/>
+      <c r="G25" s="23"/>
+    </row>
+    <row r="26" spans="2:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="48" t="s">
         <v>14</v>
       </c>
+      <c r="C26" s="37"/>
+      <c r="D26" s="48" t="s">
+        <v>21</v>
+      </c>
+      <c r="G26" s="23"/>
+    </row>
+    <row r="27" spans="2:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27" s="37"/>
+      <c r="D27" s="36" t="s">
+        <v>22</v>
+      </c>
       <c r="G27" s="23"/>
     </row>
-    <row r="28" spans="2:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="42" t="s">
-        <v>40</v>
-      </c>
-      <c r="C28" s="40"/>
-      <c r="D28" s="43" t="s">
-        <v>15</v>
+    <row r="28" spans="2:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="C28" s="37"/>
+      <c r="D28" s="49" t="s">
+        <v>41</v>
       </c>
       <c r="G28" s="23"/>
     </row>
-    <row r="29" spans="2:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="44" t="s">
-        <v>12</v>
-      </c>
-      <c r="C29" s="40"/>
-      <c r="D29" s="53" t="s">
-        <v>16</v>
-      </c>
-      <c r="G29" s="24"/>
-    </row>
-    <row r="30" spans="2:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="42" t="s">
-        <v>13</v>
-      </c>
-      <c r="C30" s="40"/>
-      <c r="D30" s="43" t="s">
-        <v>17</v>
-      </c>
-      <c r="G30" s="26"/>
-    </row>
-    <row r="31" spans="2:7" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="45"/>
-      <c r="C31" s="40"/>
-      <c r="D31" s="45"/>
-      <c r="G31" s="26"/>
-    </row>
-    <row r="32" spans="2:7" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="C29" s="37"/>
+      <c r="D29" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="G29" s="23"/>
+    </row>
+    <row r="30" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="46"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="23"/>
+      <c r="G30" s="23"/>
+    </row>
+    <row r="31" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="46"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="23"/>
+      <c r="G31" s="23"/>
+    </row>
+    <row r="32" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="46"/>
-      <c r="C32" s="40"/>
-      <c r="D32" s="46"/>
-      <c r="G32" s="26"/>
-    </row>
-    <row r="33" spans="2:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B33" s="39" t="s">
+      <c r="D32" s="23"/>
+      <c r="G32" s="23"/>
+    </row>
+    <row r="33" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="46"/>
+      <c r="D33" s="23"/>
+      <c r="G33" s="23"/>
+    </row>
+    <row r="34" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="46"/>
+      <c r="D34" s="23"/>
+      <c r="G34" s="23"/>
+    </row>
+    <row r="35" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="46"/>
+      <c r="D35" s="23"/>
+      <c r="G35" s="23"/>
+    </row>
+    <row r="36" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="46"/>
+      <c r="D36" s="23"/>
+      <c r="G36" s="23"/>
+    </row>
+    <row r="37" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="46"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="23"/>
+      <c r="G37" s="23"/>
+    </row>
+    <row r="38" spans="2:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="C33" s="40"/>
-      <c r="D33" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="G33" s="26"/>
-    </row>
-    <row r="34" spans="2:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="43" t="s">
-        <v>18</v>
-      </c>
-      <c r="C34" s="40"/>
-      <c r="D34" s="43" t="s">
-        <v>22</v>
-      </c>
-      <c r="G34" s="26"/>
-    </row>
-    <row r="35" spans="2:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="53" t="s">
-        <v>19</v>
-      </c>
-      <c r="C35" s="40"/>
-      <c r="D35" s="53" t="s">
-        <v>41</v>
-      </c>
-      <c r="G35" s="26"/>
-    </row>
-    <row r="36" spans="2:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="43" t="s">
-        <v>20</v>
-      </c>
-      <c r="C36" s="40"/>
-      <c r="D36" s="43" t="s">
-        <v>23</v>
-      </c>
-      <c r="G36" s="26"/>
-    </row>
-    <row r="37" spans="2:7" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="45"/>
-      <c r="C37" s="40"/>
-      <c r="D37" s="45"/>
-      <c r="G37" s="26"/>
-    </row>
-    <row r="38" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="26"/>
-      <c r="D38" s="26"/>
-      <c r="G38" s="26"/>
-    </row>
-    <row r="39" spans="2:7" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="26"/>
-      <c r="D39" s="26"/>
-      <c r="G39" s="26"/>
-    </row>
-    <row r="40" spans="2:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B40" s="39" t="s">
+      <c r="C38" s="19"/>
+      <c r="D38" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="D40" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="G40" s="26"/>
-    </row>
-    <row r="41" spans="2:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B41" s="43" t="s">
+      <c r="G38" s="23"/>
+    </row>
+    <row r="39" spans="2:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="D41" s="50" t="s">
+      <c r="C39" s="19"/>
+      <c r="D39" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="G41" s="26"/>
-    </row>
-    <row r="42" spans="2:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B42" s="53" t="s">
+      <c r="G39" s="23"/>
+    </row>
+    <row r="40" spans="2:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="D42" s="51" t="s">
+      <c r="C40" s="19"/>
+      <c r="D40" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="G42" s="26"/>
-    </row>
-    <row r="43" spans="2:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B43" s="43" t="s">
+      <c r="G40" s="23"/>
+    </row>
+    <row r="41" spans="2:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="D43" s="50" t="s">
+      <c r="C41" s="19"/>
+      <c r="D41" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="G43" s="26"/>
-    </row>
-    <row r="44" spans="2:7" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="45"/>
-      <c r="D44" s="45"/>
-      <c r="G44" s="26"/>
+      <c r="G41" s="23"/>
+    </row>
+    <row r="42" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="23"/>
+      <c r="C42" s="19"/>
+      <c r="D42" s="23"/>
+      <c r="G42" s="23"/>
+    </row>
+    <row r="43" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="23"/>
+      <c r="D43" s="23"/>
+      <c r="G43" s="23"/>
+    </row>
+    <row r="44" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="23"/>
+      <c r="D44" s="23"/>
+      <c r="G44" s="23"/>
     </row>
     <row r="45" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="26"/>
-      <c r="D45" s="26"/>
-      <c r="G45" s="26"/>
+      <c r="B45" s="23"/>
+      <c r="D45" s="23"/>
+      <c r="G45" s="23"/>
     </row>
     <row r="46" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="26"/>
-      <c r="D46" s="26"/>
-      <c r="G46" s="26"/>
+      <c r="B46" s="23"/>
+      <c r="D46" s="23"/>
+      <c r="G46" s="23"/>
     </row>
     <row r="47" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="26"/>
-      <c r="D47" s="26"/>
-      <c r="G47" s="26"/>
-    </row>
-    <row r="48" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="26"/>
-      <c r="D48" s="26"/>
-      <c r="G48" s="26"/>
-    </row>
-    <row r="49" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="26"/>
-      <c r="D49" s="26"/>
-      <c r="G49" s="26"/>
-    </row>
-    <row r="50" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="26"/>
-      <c r="D50" s="26"/>
-      <c r="G50" s="26"/>
-    </row>
-    <row r="51" spans="2:7" s="22" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="26"/>
-      <c r="D51" s="26"/>
-      <c r="G51" s="26"/>
-    </row>
-    <row r="52" spans="2:7" s="22" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="53" spans="2:7" s="22" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B47" s="23"/>
+      <c r="D47" s="23"/>
+      <c r="G47" s="23"/>
+    </row>
+    <row r="48" spans="2:7" s="19" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="23"/>
+      <c r="D48" s="23"/>
+      <c r="G48" s="23"/>
+    </row>
+    <row r="49" spans="2:7" s="19" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D49" s="42"/>
+    </row>
+    <row r="50" spans="2:7" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B50" s="20"/>
+      <c r="D50" s="23"/>
+      <c r="G50" s="20"/>
+    </row>
+    <row r="51" spans="2:7" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B51" s="21"/>
+      <c r="D51" s="43"/>
+      <c r="G51" s="21"/>
+    </row>
+    <row r="52" spans="2:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="23"/>
+      <c r="D52" s="23"/>
+      <c r="G52" s="23"/>
+    </row>
+    <row r="53" spans="2:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B53" s="23"/>
       <c r="D53" s="23"/>
       <c r="G53" s="23"/>
     </row>
-    <row r="54" spans="2:7" s="22" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B54" s="24"/>
-      <c r="D54" s="24"/>
-      <c r="G54" s="24"/>
-    </row>
-    <row r="55" spans="2:7" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B55" s="26"/>
-      <c r="D55" s="26"/>
-      <c r="G55" s="26"/>
-    </row>
-    <row r="56" spans="2:7" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B56" s="26"/>
-      <c r="D56" s="26"/>
-      <c r="G56" s="26"/>
-    </row>
-    <row r="57" spans="2:7" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="58" spans="2:7" s="22" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D54" s="42"/>
+    </row>
+    <row r="55" spans="2:7" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B55" s="20"/>
+      <c r="D55" s="23"/>
+      <c r="G55" s="20"/>
+    </row>
+    <row r="56" spans="2:7" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B56" s="21"/>
+      <c r="D56" s="43"/>
+      <c r="G56" s="21"/>
+    </row>
+    <row r="57" spans="2:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="23"/>
+      <c r="D57" s="23"/>
+      <c r="G57" s="23"/>
+    </row>
+    <row r="58" spans="2:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B58" s="23"/>
       <c r="D58" s="23"/>
       <c r="G58" s="23"/>
     </row>
-    <row r="59" spans="2:7" s="22" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B59" s="24"/>
-      <c r="D59" s="24"/>
-      <c r="G59" s="24"/>
-    </row>
-    <row r="60" spans="2:7" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B60" s="26"/>
-      <c r="D60" s="26"/>
-      <c r="G60" s="26"/>
-    </row>
-    <row r="61" spans="2:7" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B61" s="26"/>
-      <c r="D61" s="26"/>
-      <c r="G61" s="26"/>
-    </row>
-    <row r="62" spans="2:7" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="63" spans="2:7" s="22" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D59" s="42"/>
+    </row>
+    <row r="60" spans="2:7" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B60" s="20"/>
+      <c r="D60" s="23"/>
+      <c r="G60" s="20"/>
+    </row>
+    <row r="61" spans="2:7" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B61" s="21"/>
+      <c r="D61" s="43"/>
+      <c r="G61" s="21"/>
+    </row>
+    <row r="62" spans="2:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="23"/>
+      <c r="D62" s="23"/>
+      <c r="G62" s="23"/>
+    </row>
+    <row r="63" spans="2:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B63" s="23"/>
       <c r="D63" s="23"/>
       <c r="G63" s="23"/>
     </row>
-    <row r="64" spans="2:7" s="22" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B64" s="24"/>
-      <c r="D64" s="24"/>
-      <c r="G64" s="24"/>
-    </row>
-    <row r="65" spans="2:7" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B65" s="26"/>
-      <c r="D65" s="26"/>
-      <c r="G65" s="26"/>
-    </row>
-    <row r="66" spans="2:7" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B66" s="26"/>
-      <c r="D66" s="26"/>
-      <c r="G66" s="26"/>
-    </row>
-    <row r="67" spans="2:7" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="64" spans="2:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D64" s="42"/>
+    </row>
   </sheetData>
   <pageMargins left="0.19685039370078741" right="0.23" top="0.19685039370078741" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1519,14 +1590,14 @@
       <c r="G7" s="4"/>
     </row>
     <row r="8" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="38" t="s">
         <v>2</v>
       </c>
       <c r="D8" s="1"/>
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:7" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="12"/>
+      <c r="B9" s="39"/>
       <c r="D9" s="2" t="s">
         <v>0</v>
       </c>
@@ -1535,7 +1606,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="12"/>
+      <c r="B10" s="39"/>
       <c r="D10" s="2" t="s">
         <v>1</v>
       </c>
@@ -1544,7 +1615,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="13"/>
+      <c r="B11" s="40"/>
       <c r="D11" s="2"/>
       <c r="F11" s="2"/>
     </row>
@@ -1815,423 +1886,423 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" style="20" customWidth="1"/>
-    <col min="2" max="2" width="56.42578125" style="20" customWidth="1"/>
-    <col min="3" max="3" width="6.140625" style="20" customWidth="1"/>
-    <col min="4" max="4" width="50" style="20" customWidth="1"/>
-    <col min="5" max="5" width="5.5703125" style="20" customWidth="1"/>
-    <col min="6" max="6" width="38.140625" style="20" customWidth="1"/>
-    <col min="7" max="7" width="29.85546875" style="22" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4" style="20" customWidth="1"/>
-    <col min="9" max="16384" width="11.42578125" style="20"/>
+    <col min="1" max="1" width="3.28515625" style="17" customWidth="1"/>
+    <col min="2" max="2" width="56.42578125" style="17" customWidth="1"/>
+    <col min="3" max="3" width="6.140625" style="17" customWidth="1"/>
+    <col min="4" max="4" width="50" style="17" customWidth="1"/>
+    <col min="5" max="5" width="5.5703125" style="17" customWidth="1"/>
+    <col min="6" max="6" width="38.140625" style="17" customWidth="1"/>
+    <col min="7" max="7" width="29.85546875" style="19" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4" style="17" customWidth="1"/>
+    <col min="9" max="16384" width="11.42578125" style="17"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="21"/>
-      <c r="D1" s="21"/>
+      <c r="B1" s="18"/>
+      <c r="D1" s="18"/>
     </row>
     <row r="2" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="36" t="s">
+      <c r="D2" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="23"/>
+      <c r="G2" s="20"/>
     </row>
     <row r="3" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="23"/>
+      <c r="G3" s="20"/>
     </row>
     <row r="4" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="D4" s="19"/>
-      <c r="G4" s="24"/>
+      <c r="D4" s="16"/>
+      <c r="G4" s="21"/>
     </row>
     <row r="5" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="16"/>
-      <c r="D5" s="25"/>
-      <c r="G5" s="26"/>
+      <c r="B5" s="13"/>
+      <c r="D5" s="22"/>
+      <c r="G5" s="23"/>
     </row>
     <row r="6" spans="1:8" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="G6" s="26"/>
+      <c r="B6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="G6" s="23"/>
     </row>
     <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="G7" s="26"/>
+      <c r="B7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="G7" s="23"/>
     </row>
     <row r="8" spans="1:8" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="22"/>
-      <c r="B8" s="28"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="22"/>
+      <c r="A8" s="19"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="19"/>
     </row>
     <row r="9" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="37" t="s">
+      <c r="B9" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="38" t="s">
+      <c r="D9" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="23"/>
+      <c r="G9" s="20"/>
     </row>
     <row r="10" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="D10" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="G10" s="23"/>
+      <c r="G10" s="20"/>
     </row>
     <row r="11" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="D11" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="G11" s="24"/>
+      <c r="G11" s="21"/>
     </row>
     <row r="12" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="16" t="s">
+      <c r="D12" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="G12" s="26"/>
+      <c r="G12" s="23"/>
     </row>
     <row r="13" spans="1:8" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="27"/>
-      <c r="D13" s="27"/>
-      <c r="G13" s="26"/>
+      <c r="B13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="G13" s="23"/>
     </row>
     <row r="14" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="26"/>
-      <c r="D14" s="26"/>
-      <c r="G14" s="26"/>
+      <c r="B14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="G14" s="23"/>
     </row>
     <row r="15" spans="1:8" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="21"/>
-      <c r="D15" s="21"/>
+      <c r="B15" s="18"/>
+      <c r="D15" s="18"/>
     </row>
     <row r="16" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="37" t="s">
+      <c r="B16" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="37" t="s">
+      <c r="D16" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="G16" s="23"/>
+      <c r="G16" s="20"/>
     </row>
     <row r="17" spans="2:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="18" t="s">
+      <c r="D17" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="G17" s="23"/>
+      <c r="G17" s="20"/>
     </row>
     <row r="18" spans="2:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="33" t="s">
+      <c r="B18" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="D18" s="33" t="s">
+      <c r="D18" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="G18" s="24"/>
+      <c r="G18" s="21"/>
     </row>
     <row r="19" spans="2:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="18" t="s">
+      <c r="B19" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="18" t="s">
+      <c r="D19" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="G19" s="26"/>
+      <c r="G19" s="23"/>
     </row>
     <row r="20" spans="2:7" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="27"/>
-      <c r="D20" s="27"/>
-      <c r="G20" s="26"/>
+      <c r="B20" s="24"/>
+      <c r="D20" s="24"/>
+      <c r="G20" s="23"/>
     </row>
     <row r="21" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="G21" s="26"/>
+      <c r="B21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="G21" s="23"/>
     </row>
     <row r="22" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B22" s="26"/>
-      <c r="D22" s="26"/>
-      <c r="G22" s="26"/>
+      <c r="B22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="G22" s="23"/>
     </row>
     <row r="23" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B23" s="26"/>
-      <c r="D23" s="26"/>
-      <c r="G23" s="26"/>
+      <c r="B23" s="23"/>
+      <c r="D23" s="23"/>
+      <c r="G23" s="23"/>
     </row>
     <row r="24" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B24" s="26"/>
-      <c r="D24" s="26"/>
-      <c r="G24" s="26"/>
+      <c r="B24" s="23"/>
+      <c r="D24" s="23"/>
+      <c r="G24" s="23"/>
     </row>
     <row r="25" spans="2:7" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="21"/>
-      <c r="D25" s="21"/>
+      <c r="B25" s="18"/>
+      <c r="D25" s="18"/>
     </row>
     <row r="26" spans="2:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="37" t="s">
+      <c r="B26" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="37" t="s">
+      <c r="D26" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="G26" s="23"/>
+      <c r="G26" s="20"/>
     </row>
     <row r="27" spans="2:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="18" t="s">
+      <c r="B27" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="18" t="s">
+      <c r="D27" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="G27" s="23"/>
+      <c r="G27" s="20"/>
     </row>
     <row r="28" spans="2:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="33" t="s">
+      <c r="B28" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="D28" s="33" t="s">
+      <c r="D28" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="G28" s="24"/>
+      <c r="G28" s="21"/>
     </row>
     <row r="29" spans="2:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="18" t="s">
+      <c r="B29" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="D29" s="18" t="s">
+      <c r="D29" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="G29" s="26"/>
+      <c r="G29" s="23"/>
     </row>
     <row r="30" spans="2:7" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="27"/>
-      <c r="D30" s="27"/>
-      <c r="G30" s="26"/>
+      <c r="B30" s="24"/>
+      <c r="D30" s="24"/>
+      <c r="G30" s="23"/>
     </row>
     <row r="31" spans="2:7" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="26"/>
-      <c r="D31" s="26"/>
-      <c r="G31" s="26"/>
+      <c r="B31" s="23"/>
+      <c r="D31" s="23"/>
+      <c r="G31" s="23"/>
     </row>
     <row r="32" spans="2:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B32" s="36" t="s">
+      <c r="B32" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="D32" s="37" t="s">
+      <c r="D32" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="G32" s="26"/>
+      <c r="G32" s="23"/>
     </row>
     <row r="33" spans="2:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B33" s="14" t="s">
+      <c r="B33" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D33" s="14" t="s">
+      <c r="D33" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="G33" s="26"/>
+      <c r="G33" s="23"/>
     </row>
     <row r="34" spans="2:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B34" s="15" t="s">
+      <c r="B34" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D34" s="15" t="s">
+      <c r="D34" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="G34" s="26"/>
+      <c r="G34" s="23"/>
     </row>
     <row r="35" spans="2:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B35" s="14" t="s">
+      <c r="B35" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D35" s="14" t="s">
+      <c r="D35" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="G35" s="26"/>
+      <c r="G35" s="23"/>
     </row>
     <row r="36" spans="2:7" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="27"/>
-      <c r="D36" s="27"/>
-      <c r="G36" s="26"/>
+      <c r="B36" s="24"/>
+      <c r="D36" s="24"/>
+      <c r="G36" s="23"/>
     </row>
     <row r="37" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="26"/>
-      <c r="D37" s="26"/>
-      <c r="G37" s="26"/>
+      <c r="B37" s="23"/>
+      <c r="D37" s="23"/>
+      <c r="G37" s="23"/>
     </row>
     <row r="38" spans="2:7" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="26"/>
-      <c r="D38" s="26"/>
-      <c r="G38" s="26"/>
+      <c r="B38" s="23"/>
+      <c r="D38" s="23"/>
+      <c r="G38" s="23"/>
     </row>
     <row r="39" spans="2:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="31" t="s">
+      <c r="B39" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="D39" s="29" t="s">
+      <c r="D39" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="G39" s="26"/>
+      <c r="G39" s="23"/>
     </row>
     <row r="40" spans="2:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="16" t="s">
+      <c r="B40" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="D40" s="30" t="s">
+      <c r="D40" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="G40" s="26"/>
+      <c r="G40" s="23"/>
     </row>
     <row r="41" spans="2:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="19" t="s">
+      <c r="B41" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="D41" s="35" t="s">
+      <c r="D41" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="G41" s="26"/>
+      <c r="G41" s="23"/>
     </row>
     <row r="42" spans="2:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="32" t="s">
+      <c r="B42" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="30" t="s">
+      <c r="D42" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="G42" s="26"/>
+      <c r="G42" s="23"/>
     </row>
     <row r="43" spans="2:7" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B43" s="34"/>
-      <c r="D43" s="34"/>
-      <c r="G43" s="26"/>
+      <c r="B43" s="31"/>
+      <c r="D43" s="31"/>
+      <c r="G43" s="23"/>
     </row>
     <row r="44" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="26"/>
-      <c r="D44" s="26"/>
-      <c r="G44" s="26"/>
+      <c r="B44" s="23"/>
+      <c r="D44" s="23"/>
+      <c r="G44" s="23"/>
     </row>
     <row r="45" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="26"/>
-      <c r="D45" s="26"/>
-      <c r="G45" s="26"/>
+      <c r="B45" s="23"/>
+      <c r="D45" s="23"/>
+      <c r="G45" s="23"/>
     </row>
     <row r="46" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="26"/>
-      <c r="D46" s="26"/>
-      <c r="G46" s="26"/>
+      <c r="B46" s="23"/>
+      <c r="D46" s="23"/>
+      <c r="G46" s="23"/>
     </row>
     <row r="47" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="26"/>
-      <c r="D47" s="26"/>
-      <c r="G47" s="26"/>
+      <c r="B47" s="23"/>
+      <c r="D47" s="23"/>
+      <c r="G47" s="23"/>
     </row>
     <row r="48" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="26"/>
-      <c r="D48" s="26"/>
-      <c r="G48" s="26"/>
+      <c r="B48" s="23"/>
+      <c r="D48" s="23"/>
+      <c r="G48" s="23"/>
     </row>
     <row r="49" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="26"/>
-      <c r="D49" s="26"/>
-      <c r="G49" s="26"/>
-    </row>
-    <row r="50" spans="2:7" s="22" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="26"/>
-      <c r="D50" s="26"/>
-      <c r="G50" s="26"/>
-    </row>
-    <row r="51" spans="2:7" s="22" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="52" spans="2:7" s="22" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B52" s="23"/>
-      <c r="D52" s="23"/>
-      <c r="G52" s="23"/>
-    </row>
-    <row r="53" spans="2:7" s="22" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B53" s="24"/>
-      <c r="D53" s="24"/>
-      <c r="G53" s="24"/>
-    </row>
-    <row r="54" spans="2:7" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B54" s="26"/>
-      <c r="D54" s="26"/>
-      <c r="G54" s="26"/>
-    </row>
-    <row r="55" spans="2:7" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B55" s="26"/>
-      <c r="D55" s="26"/>
-      <c r="G55" s="26"/>
-    </row>
-    <row r="56" spans="2:7" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="57" spans="2:7" s="22" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B57" s="23"/>
-      <c r="D57" s="23"/>
-      <c r="G57" s="23"/>
-    </row>
-    <row r="58" spans="2:7" s="22" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B58" s="24"/>
-      <c r="D58" s="24"/>
-      <c r="G58" s="24"/>
-    </row>
-    <row r="59" spans="2:7" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B59" s="26"/>
-      <c r="D59" s="26"/>
-      <c r="G59" s="26"/>
-    </row>
-    <row r="60" spans="2:7" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B60" s="26"/>
-      <c r="D60" s="26"/>
-      <c r="G60" s="26"/>
-    </row>
-    <row r="61" spans="2:7" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="62" spans="2:7" s="22" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B62" s="23"/>
-      <c r="D62" s="23"/>
-      <c r="G62" s="23"/>
-    </row>
-    <row r="63" spans="2:7" s="22" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B63" s="24"/>
-      <c r="D63" s="24"/>
-      <c r="G63" s="24"/>
-    </row>
-    <row r="64" spans="2:7" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B64" s="26"/>
-      <c r="D64" s="26"/>
-      <c r="G64" s="26"/>
-    </row>
-    <row r="65" spans="2:7" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B65" s="26"/>
-      <c r="D65" s="26"/>
-      <c r="G65" s="26"/>
-    </row>
-    <row r="66" spans="2:7" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+      <c r="B49" s="23"/>
+      <c r="D49" s="23"/>
+      <c r="G49" s="23"/>
+    </row>
+    <row r="50" spans="2:7" s="19" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="23"/>
+      <c r="D50" s="23"/>
+      <c r="G50" s="23"/>
+    </row>
+    <row r="51" spans="2:7" s="19" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" spans="2:7" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B52" s="20"/>
+      <c r="D52" s="20"/>
+      <c r="G52" s="20"/>
+    </row>
+    <row r="53" spans="2:7" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B53" s="21"/>
+      <c r="D53" s="21"/>
+      <c r="G53" s="21"/>
+    </row>
+    <row r="54" spans="2:7" s="19" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B54" s="23"/>
+      <c r="D54" s="23"/>
+      <c r="G54" s="23"/>
+    </row>
+    <row r="55" spans="2:7" s="19" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B55" s="23"/>
+      <c r="D55" s="23"/>
+      <c r="G55" s="23"/>
+    </row>
+    <row r="56" spans="2:7" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="57" spans="2:7" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B57" s="20"/>
+      <c r="D57" s="20"/>
+      <c r="G57" s="20"/>
+    </row>
+    <row r="58" spans="2:7" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B58" s="21"/>
+      <c r="D58" s="21"/>
+      <c r="G58" s="21"/>
+    </row>
+    <row r="59" spans="2:7" s="19" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B59" s="23"/>
+      <c r="D59" s="23"/>
+      <c r="G59" s="23"/>
+    </row>
+    <row r="60" spans="2:7" s="19" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B60" s="23"/>
+      <c r="D60" s="23"/>
+      <c r="G60" s="23"/>
+    </row>
+    <row r="61" spans="2:7" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="62" spans="2:7" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B62" s="20"/>
+      <c r="D62" s="20"/>
+      <c r="G62" s="20"/>
+    </row>
+    <row r="63" spans="2:7" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B63" s="21"/>
+      <c r="D63" s="21"/>
+      <c r="G63" s="21"/>
+    </row>
+    <row r="64" spans="2:7" s="19" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B64" s="23"/>
+      <c r="D64" s="23"/>
+      <c r="G64" s="23"/>
+    </row>
+    <row r="65" spans="2:7" s="19" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B65" s="23"/>
+      <c r="D65" s="23"/>
+      <c r="G65" s="23"/>
+    </row>
+    <row r="66" spans="2:7" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/01 DOCUEMENTOS/ETIQ,.LIBROS.xlsx
+++ b/01 DOCUEMENTOS/ETIQ,.LIBROS.xlsx
@@ -12,19 +12,20 @@
     <workbookView xWindow="600" yWindow="105" windowWidth="10335" windowHeight="4815" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="ETIQUETAS" sheetId="3" r:id="rId1"/>
-    <sheet name="ETIQUETAS LIBROS  " sheetId="4" r:id="rId2"/>
-    <sheet name="Hoja2" sheetId="7" r:id="rId3"/>
-    <sheet name="para   lapices" sheetId="8" r:id="rId4"/>
-    <sheet name="Hoja1" sheetId="6" r:id="rId5"/>
-    <sheet name="VENENO" sheetId="5" r:id="rId6"/>
+    <sheet name="MAS ETIQUETAS   " sheetId="9" r:id="rId1"/>
+    <sheet name="ETIQUETAS" sheetId="3" r:id="rId2"/>
+    <sheet name="ETIQUETAS LIBROS  " sheetId="4" r:id="rId3"/>
+    <sheet name="Hoja2" sheetId="7" r:id="rId4"/>
+    <sheet name="para   lapices" sheetId="8" r:id="rId5"/>
+    <sheet name="Hoja1" sheetId="6" r:id="rId6"/>
+    <sheet name="VENENO" sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="78">
   <si>
     <t>Damián Hernández Polvo</t>
   </si>
@@ -201,6 +202,63 @@
   </si>
   <si>
     <t>Grado   3° A</t>
+  </si>
+  <si>
+    <t>LOCAL</t>
+  </si>
+  <si>
+    <t>Calle Tercera de Benito Juarez</t>
+  </si>
+  <si>
+    <t>Col. Gudadlupe Hidalgo</t>
+  </si>
+  <si>
+    <t>Senderos del Fresno</t>
+  </si>
+  <si>
+    <t>Lote 188</t>
+  </si>
+  <si>
+    <t>19) NORMA LEDO PARRA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Senderos del Fresno </t>
+  </si>
+  <si>
+    <t>Lote 189</t>
+  </si>
+  <si>
+    <t>20) NORMA LEDO PARRA</t>
+  </si>
+  <si>
+    <t>Lote 190</t>
+  </si>
+  <si>
+    <t>21) NORMA LEDO PARRA</t>
+  </si>
+  <si>
+    <t>5 de Mayo  No. 22 San juan Tulcingo</t>
+  </si>
+  <si>
+    <t>Cuautlancingo Pue</t>
+  </si>
+  <si>
+    <t>22) NORMA LEDO PARRA</t>
+  </si>
+  <si>
+    <t>Lote 1 y 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Col. Chapultepec </t>
+  </si>
+  <si>
+    <t>23) ARCADIO LEDO BERISTAIN</t>
+  </si>
+  <si>
+    <t>Las fuentes Rancho Aparicio</t>
+  </si>
+  <si>
+    <t>CALZADA ZAVALETA # 706</t>
   </si>
 </sst>
 </file>
@@ -459,7 +517,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -645,6 +703,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1067,8 +1128,466 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H64"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5" style="14" customWidth="1"/>
+    <col min="2" max="2" width="36.140625" style="14" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" style="14" customWidth="1"/>
+    <col min="4" max="4" width="38" style="38" customWidth="1"/>
+    <col min="5" max="5" width="5.5703125" style="14" customWidth="1"/>
+    <col min="6" max="6" width="38.140625" style="14" customWidth="1"/>
+    <col min="7" max="7" width="4.42578125" style="16" customWidth="1"/>
+    <col min="8" max="8" width="4" style="14" customWidth="1"/>
+    <col min="9" max="16384" width="11.42578125" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="36"/>
+    </row>
+    <row r="2" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="36"/>
+      <c r="D2" s="46" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" s="17"/>
+    </row>
+    <row r="3" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="G3" s="17"/>
+    </row>
+    <row r="4" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="G4" s="18"/>
+    </row>
+    <row r="5" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="36"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="35"/>
+      <c r="G5" s="20"/>
+    </row>
+    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B6" s="33"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="33"/>
+      <c r="G6" s="20"/>
+    </row>
+    <row r="7" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="16"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="16"/>
+    </row>
+    <row r="8" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="34"/>
+      <c r="D8" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="G8" s="17"/>
+    </row>
+    <row r="9" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="34"/>
+      <c r="D9" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="G9" s="17"/>
+    </row>
+    <row r="10" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="34"/>
+      <c r="D10" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="G10" s="18"/>
+    </row>
+    <row r="11" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="20"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="33"/>
+      <c r="G11" s="20"/>
+    </row>
+    <row r="12" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B12" s="33"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="33"/>
+      <c r="G12" s="20"/>
+    </row>
+    <row r="13" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C13" s="34"/>
+    </row>
+    <row r="14" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="34"/>
+      <c r="D14" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="G14" s="17"/>
+    </row>
+    <row r="15" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="41" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="34"/>
+      <c r="D15" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="G15" s="17"/>
+    </row>
+    <row r="16" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="34"/>
+      <c r="D16" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="G16" s="18"/>
+    </row>
+    <row r="17" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="36"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="41"/>
+      <c r="G17" s="20"/>
+    </row>
+    <row r="18" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B18" s="33"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="33"/>
+      <c r="G18" s="20"/>
+    </row>
+    <row r="19" spans="2:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="33"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="33"/>
+      <c r="G19" s="20"/>
+    </row>
+    <row r="20" spans="2:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="34"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="41"/>
+    </row>
+    <row r="21" spans="2:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="34"/>
+      <c r="D21" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="G21" s="17"/>
+    </row>
+    <row r="22" spans="2:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="34"/>
+      <c r="D22" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" s="17"/>
+    </row>
+    <row r="23" spans="2:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="34"/>
+      <c r="D23" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="G23" s="18"/>
+    </row>
+    <row r="24" spans="2:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="34"/>
+      <c r="D24" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="G24" s="20"/>
+    </row>
+    <row r="25" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="39"/>
+      <c r="C25" s="34"/>
+      <c r="D25" s="33"/>
+      <c r="G25" s="20"/>
+    </row>
+    <row r="26" spans="2:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" s="34"/>
+      <c r="D26" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="G26" s="20"/>
+    </row>
+    <row r="27" spans="2:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27" s="34"/>
+      <c r="D27" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="G27" s="20"/>
+    </row>
+    <row r="28" spans="2:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="C28" s="34"/>
+      <c r="D28" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="G28" s="20"/>
+    </row>
+    <row r="29" spans="2:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29" s="34"/>
+      <c r="D29" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="G29" s="20"/>
+    </row>
+    <row r="30" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="40"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="20"/>
+      <c r="G30" s="20"/>
+    </row>
+    <row r="31" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="40"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="20"/>
+      <c r="G31" s="20"/>
+    </row>
+    <row r="32" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="40"/>
+      <c r="D32" s="20"/>
+      <c r="G32" s="20"/>
+    </row>
+    <row r="33" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="40"/>
+      <c r="D33" s="20"/>
+      <c r="G33" s="20"/>
+    </row>
+    <row r="34" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="40"/>
+      <c r="D34" s="20"/>
+      <c r="G34" s="20"/>
+    </row>
+    <row r="35" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="40"/>
+      <c r="D35" s="20"/>
+      <c r="G35" s="20"/>
+    </row>
+    <row r="36" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="40"/>
+      <c r="D36" s="20"/>
+      <c r="G36" s="20"/>
+    </row>
+    <row r="37" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="40"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="20"/>
+      <c r="G37" s="20"/>
+    </row>
+    <row r="38" spans="2:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="C38" s="16"/>
+      <c r="D38" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="G38" s="20"/>
+    </row>
+    <row r="39" spans="2:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="C39" s="16"/>
+      <c r="D39" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="G39" s="20"/>
+    </row>
+    <row r="40" spans="2:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="C40" s="16"/>
+      <c r="D40" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="G40" s="20"/>
+    </row>
+    <row r="41" spans="2:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="C41" s="16"/>
+      <c r="D41" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="G41" s="20"/>
+    </row>
+    <row r="42" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="20"/>
+      <c r="C42" s="16"/>
+      <c r="D42" s="20"/>
+      <c r="G42" s="20"/>
+    </row>
+    <row r="43" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="20"/>
+      <c r="D43" s="20"/>
+      <c r="G43" s="20"/>
+    </row>
+    <row r="44" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="20"/>
+      <c r="D44" s="20"/>
+      <c r="G44" s="20"/>
+    </row>
+    <row r="45" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="20"/>
+      <c r="D45" s="20"/>
+      <c r="G45" s="20"/>
+    </row>
+    <row r="46" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="20"/>
+      <c r="D46" s="20"/>
+      <c r="G46" s="20"/>
+    </row>
+    <row r="47" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="20"/>
+      <c r="D47" s="20"/>
+      <c r="G47" s="20"/>
+    </row>
+    <row r="48" spans="2:7" s="16" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="20"/>
+      <c r="D48" s="20"/>
+      <c r="G48" s="20"/>
+    </row>
+    <row r="49" spans="2:7" s="16" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D49" s="36"/>
+    </row>
+    <row r="50" spans="2:7" s="16" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B50" s="17"/>
+      <c r="D50" s="20"/>
+      <c r="G50" s="17"/>
+    </row>
+    <row r="51" spans="2:7" s="16" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B51" s="18"/>
+      <c r="D51" s="37"/>
+      <c r="G51" s="18"/>
+    </row>
+    <row r="52" spans="2:7" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B52" s="20"/>
+      <c r="D52" s="20"/>
+      <c r="G52" s="20"/>
+    </row>
+    <row r="53" spans="2:7" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B53" s="20"/>
+      <c r="D53" s="20"/>
+      <c r="G53" s="20"/>
+    </row>
+    <row r="54" spans="2:7" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D54" s="36"/>
+    </row>
+    <row r="55" spans="2:7" s="16" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B55" s="17"/>
+      <c r="D55" s="20"/>
+      <c r="G55" s="17"/>
+    </row>
+    <row r="56" spans="2:7" s="16" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B56" s="18"/>
+      <c r="D56" s="37"/>
+      <c r="G56" s="18"/>
+    </row>
+    <row r="57" spans="2:7" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B57" s="20"/>
+      <c r="D57" s="20"/>
+      <c r="G57" s="20"/>
+    </row>
+    <row r="58" spans="2:7" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B58" s="20"/>
+      <c r="D58" s="20"/>
+      <c r="G58" s="20"/>
+    </row>
+    <row r="59" spans="2:7" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D59" s="36"/>
+    </row>
+    <row r="60" spans="2:7" s="16" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B60" s="17"/>
+      <c r="D60" s="20"/>
+      <c r="G60" s="17"/>
+    </row>
+    <row r="61" spans="2:7" s="16" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B61" s="18"/>
+      <c r="D61" s="37"/>
+      <c r="G61" s="18"/>
+    </row>
+    <row r="62" spans="2:7" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B62" s="20"/>
+      <c r="D62" s="20"/>
+      <c r="G62" s="20"/>
+    </row>
+    <row r="63" spans="2:7" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B63" s="20"/>
+      <c r="D63" s="20"/>
+      <c r="G63" s="20"/>
+    </row>
+    <row r="64" spans="2:7" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D64" s="36"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H64"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1090,32 +1609,32 @@
       <c r="D1" s="36"/>
     </row>
     <row r="2" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="45" t="s">
-        <v>41</v>
+      <c r="B2" s="42" t="s">
+        <v>52</v>
       </c>
       <c r="C2" s="36"/>
-      <c r="D2" s="46" t="s">
+      <c r="D2" s="66" t="s">
         <v>49</v>
       </c>
       <c r="G2" s="17"/>
     </row>
     <row r="3" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="36" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="C3" s="36"/>
       <c r="D3" s="36" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="G3" s="17"/>
     </row>
     <row r="4" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="36" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="C4" s="36"/>
       <c r="D4" s="36" t="s">
-        <v>51</v>
+        <v>77</v>
       </c>
       <c r="G4" s="18"/>
     </row>
@@ -1142,32 +1661,32 @@
       <c r="H7" s="16"/>
     </row>
     <row r="8" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="39" t="s">
-        <v>44</v>
+      <c r="B8" s="42" t="s">
+        <v>55</v>
       </c>
       <c r="C8" s="34"/>
-      <c r="D8" s="39" t="s">
-        <v>52</v>
+      <c r="D8" s="42" t="s">
+        <v>64</v>
       </c>
       <c r="G8" s="17"/>
     </row>
     <row r="9" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="36" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="C9" s="34"/>
       <c r="D9" s="36" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="G9" s="17"/>
     </row>
     <row r="10" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="38" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="C10" s="34"/>
       <c r="D10" s="36" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="G10" s="18"/>
     </row>
@@ -1187,32 +1706,32 @@
       <c r="C13" s="34"/>
     </row>
     <row r="14" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="39" t="s">
-        <v>47</v>
+      <c r="B14" s="42" t="s">
+        <v>67</v>
       </c>
       <c r="C14" s="34"/>
-      <c r="D14" s="39" t="s">
-        <v>55</v>
+      <c r="D14" s="42" t="s">
+        <v>69</v>
       </c>
       <c r="G14" s="17"/>
     </row>
     <row r="15" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="41" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="C15" s="34"/>
       <c r="D15" s="41" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="G15" s="17"/>
     </row>
     <row r="16" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="36" t="s">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="C16" s="34"/>
       <c r="D16" s="38" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="G16" s="18"/>
     </row>
@@ -1240,43 +1759,37 @@
       <c r="D20" s="41"/>
     </row>
     <row r="21" spans="2:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="33" t="s">
-        <v>10</v>
+      <c r="B21" s="42" t="s">
+        <v>72</v>
       </c>
       <c r="C21" s="34"/>
-      <c r="D21" s="39" t="s">
-        <v>13</v>
+      <c r="D21" s="42" t="s">
+        <v>75</v>
       </c>
       <c r="G21" s="17"/>
     </row>
     <row r="22" spans="2:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="39" t="s">
-        <v>39</v>
+      <c r="B22" s="41" t="s">
+        <v>73</v>
       </c>
       <c r="C22" s="34"/>
       <c r="D22" s="33" t="s">
-        <v>14</v>
+        <v>76</v>
       </c>
       <c r="G22" s="17"/>
     </row>
     <row r="23" spans="2:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="44" t="s">
-        <v>11</v>
+      <c r="B23" s="38" t="s">
+        <v>74</v>
       </c>
       <c r="C23" s="34"/>
-      <c r="D23" s="43" t="s">
-        <v>15</v>
-      </c>
+      <c r="D23" s="43"/>
       <c r="G23" s="18"/>
     </row>
     <row r="24" spans="2:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="39" t="s">
-        <v>12</v>
-      </c>
+      <c r="B24" s="39"/>
       <c r="C24" s="34"/>
-      <c r="D24" s="33" t="s">
-        <v>16</v>
-      </c>
+      <c r="D24" s="33"/>
       <c r="G24" s="20"/>
     </row>
     <row r="25" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1286,43 +1799,27 @@
       <c r="G25" s="20"/>
     </row>
     <row r="26" spans="2:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="42" t="s">
-        <v>13</v>
-      </c>
+      <c r="B26" s="42"/>
       <c r="C26" s="34"/>
-      <c r="D26" s="42" t="s">
-        <v>20</v>
-      </c>
+      <c r="D26" s="42"/>
       <c r="G26" s="20"/>
     </row>
     <row r="27" spans="2:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="39" t="s">
-        <v>17</v>
-      </c>
+      <c r="B27" s="39"/>
       <c r="C27" s="34"/>
-      <c r="D27" s="33" t="s">
-        <v>21</v>
-      </c>
+      <c r="D27" s="33"/>
       <c r="G27" s="20"/>
     </row>
     <row r="28" spans="2:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="44" t="s">
-        <v>18</v>
-      </c>
+      <c r="B28" s="44"/>
       <c r="C28" s="34"/>
-      <c r="D28" s="43" t="s">
-        <v>40</v>
-      </c>
+      <c r="D28" s="43"/>
       <c r="G28" s="20"/>
     </row>
     <row r="29" spans="2:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="39" t="s">
-        <v>19</v>
-      </c>
+      <c r="B29" s="39"/>
       <c r="C29" s="34"/>
-      <c r="D29" s="33" t="s">
-        <v>22</v>
-      </c>
+      <c r="D29" s="33"/>
       <c r="G29" s="20"/>
     </row>
     <row r="30" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1369,43 +1866,27 @@
       <c r="G37" s="20"/>
     </row>
     <row r="38" spans="2:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="39" t="s">
-        <v>13</v>
-      </c>
+      <c r="B38" s="39"/>
       <c r="C38" s="16"/>
-      <c r="D38" s="33" t="s">
-        <v>13</v>
-      </c>
+      <c r="D38" s="33"/>
       <c r="G38" s="20"/>
     </row>
     <row r="39" spans="2:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="39" t="s">
-        <v>23</v>
-      </c>
+      <c r="B39" s="39"/>
       <c r="C39" s="16"/>
-      <c r="D39" s="33" t="s">
-        <v>28</v>
-      </c>
+      <c r="D39" s="33"/>
       <c r="G39" s="20"/>
     </row>
     <row r="40" spans="2:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="44" t="s">
-        <v>24</v>
-      </c>
+      <c r="B40" s="44"/>
       <c r="C40" s="16"/>
-      <c r="D40" s="43" t="s">
-        <v>29</v>
-      </c>
+      <c r="D40" s="43"/>
       <c r="G40" s="20"/>
     </row>
     <row r="41" spans="2:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="39" t="s">
-        <v>25</v>
-      </c>
+      <c r="B41" s="39"/>
       <c r="C41" s="16"/>
-      <c r="D41" s="33" t="s">
-        <v>30</v>
-      </c>
+      <c r="D41" s="33"/>
       <c r="G41" s="20"/>
     </row>
     <row r="42" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1522,14 +2003,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
   <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
@@ -1839,7 +2320,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H43"/>
   <sheetViews>
@@ -2215,7 +2696,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
@@ -2594,7 +3075,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H66"/>
   <sheetViews>
@@ -3026,7 +3507,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D4"/>
   <sheetViews>

--- a/01 DOCUEMENTOS/ETIQ,.LIBROS.xlsx
+++ b/01 DOCUEMENTOS/ETIQ,.LIBROS.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="105" windowWidth="10335" windowHeight="4815" activeTab="1"/>
+    <workbookView xWindow="600" yWindow="105" windowWidth="10335" windowHeight="4815" firstSheet="3" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="MAS ETIQUETAS   " sheetId="9" r:id="rId1"/>
@@ -18,14 +18,16 @@
     <sheet name="Hoja2" sheetId="7" r:id="rId4"/>
     <sheet name="para   lapices" sheetId="8" r:id="rId5"/>
     <sheet name="Hoja1" sheetId="6" r:id="rId6"/>
-    <sheet name="VENENO" sheetId="5" r:id="rId7"/>
+    <sheet name="ETIQUETAS MENUS" sheetId="10" r:id="rId7"/>
+    <sheet name="Hoja4" sheetId="11" r:id="rId8"/>
+    <sheet name="VENENO" sheetId="5" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="96">
   <si>
     <t>Damián Hernández Polvo</t>
   </si>
@@ -259,13 +261,555 @@
   </si>
   <si>
     <t>CALZADA ZAVALETA # 706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                       Tacos Dorados</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Semana cinco</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">                                   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">                        Lunes</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:               Arroz blanco</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">                               Huauzontles con queso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                           Calabacitas rellenas        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                 Tortitas de papa</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Semana dos</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">                                                                                        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">      Lunes</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">:               Sopa de pasta                </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Semana tres</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">                                                           </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">   Miercoles</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:          Arroz blanco</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Semana cuatro</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">                                             </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">   Miercoles</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">:        Sopa de verduras </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Semana seis</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">                                                  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">   Lunes</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:            Arroz blanco</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">                         Chiles rellenos con queso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                           Calabacitas a la mexicana</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Semana uno                                          </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">                          Lunes: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">      Arroz verde                          </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Semana uno                                          </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">                          Lunes: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">      Arroz verde                          </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Semana dos</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">                                                                                        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">      Lunes</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">:               Sopa de pasta                </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Semana tres</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">                                                           </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">   Miercoles</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:          Arroz blanco</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Semana cuatro</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">                                             </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">   Miercoles</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">:        Sopa de verduras </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Semana cinco</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">                                   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">                        Lunes</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:               Arroz blanco</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Semana seis</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">                                                  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">   Lunes</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:            Arroz blanco</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -429,6 +973,66 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -517,7 +1121,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -706,6 +1310,42 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1128,11 +1768,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H64"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" style="14" customWidth="1"/>
     <col min="2" max="2" width="36.140625" style="14" customWidth="1"/>
@@ -1186,7 +1826,7 @@
       <c r="D5" s="35"/>
       <c r="G5" s="20"/>
     </row>
-    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B6" s="33"/>
       <c r="C6" s="34"/>
       <c r="D6" s="33"/>
@@ -1238,7 +1878,7 @@
       <c r="D11" s="33"/>
       <c r="G11" s="20"/>
     </row>
-    <row r="12" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B12" s="33"/>
       <c r="C12" s="34"/>
       <c r="D12" s="33"/>
@@ -1283,7 +1923,7 @@
       <c r="D17" s="41"/>
       <c r="G17" s="20"/>
     </row>
-    <row r="18" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="33"/>
       <c r="C18" s="34"/>
       <c r="D18" s="33"/>
@@ -1518,17 +2158,17 @@
       <c r="D51" s="37"/>
       <c r="G51" s="18"/>
     </row>
-    <row r="52" spans="2:7" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B52" s="20"/>
       <c r="D52" s="20"/>
       <c r="G52" s="20"/>
     </row>
-    <row r="53" spans="2:7" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B53" s="20"/>
       <c r="D53" s="20"/>
       <c r="G53" s="20"/>
     </row>
-    <row r="54" spans="2:7" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D54" s="36"/>
     </row>
     <row r="55" spans="2:7" s="16" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
@@ -1541,17 +2181,17 @@
       <c r="D56" s="37"/>
       <c r="G56" s="18"/>
     </row>
-    <row r="57" spans="2:7" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B57" s="20"/>
       <c r="D57" s="20"/>
       <c r="G57" s="20"/>
     </row>
-    <row r="58" spans="2:7" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B58" s="20"/>
       <c r="D58" s="20"/>
       <c r="G58" s="20"/>
     </row>
-    <row r="59" spans="2:7" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D59" s="36"/>
     </row>
     <row r="60" spans="2:7" s="16" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
@@ -1564,17 +2204,17 @@
       <c r="D61" s="37"/>
       <c r="G61" s="18"/>
     </row>
-    <row r="62" spans="2:7" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B62" s="20"/>
       <c r="D62" s="20"/>
       <c r="G62" s="20"/>
     </row>
-    <row r="63" spans="2:7" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B63" s="20"/>
       <c r="D63" s="20"/>
       <c r="G63" s="20"/>
     </row>
-    <row r="64" spans="2:7" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D64" s="36"/>
     </row>
   </sheetData>
@@ -1586,7 +2226,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H64"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
@@ -2325,7 +2965,7 @@
   <dimension ref="B1:H43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="C23" sqref="C23:D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2704,7 +3344,7 @@
   <dimension ref="B1:H43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3079,8 +3719,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H66"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3508,6 +4148,290 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H38"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.28515625" style="69" customWidth="1"/>
+    <col min="2" max="2" width="45.28515625" style="69" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" style="69" customWidth="1"/>
+    <col min="4" max="4" width="45.42578125" style="69" customWidth="1"/>
+    <col min="5" max="5" width="5.5703125" style="69" customWidth="1"/>
+    <col min="6" max="6" width="38.140625" style="69" customWidth="1"/>
+    <col min="7" max="7" width="29.85546875" style="34" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4" style="69" customWidth="1"/>
+    <col min="9" max="16384" width="11.42578125" style="69"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="34"/>
+      <c r="D1" s="34"/>
+    </row>
+    <row r="2" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="68" t="s">
+        <v>89</v>
+      </c>
+      <c r="C2" s="34"/>
+      <c r="D2" s="72" t="s">
+        <v>90</v>
+      </c>
+      <c r="G2" s="70"/>
+    </row>
+    <row r="3" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B3" s="70" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3" s="34"/>
+      <c r="D3" s="73" t="s">
+        <v>78</v>
+      </c>
+      <c r="G3" s="33"/>
+    </row>
+    <row r="4" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="34"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="34"/>
+    </row>
+    <row r="5" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="68" t="s">
+        <v>83</v>
+      </c>
+      <c r="C5" s="34"/>
+      <c r="D5" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="G5" s="70"/>
+    </row>
+    <row r="6" spans="1:8" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B6" s="71" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6" s="34"/>
+      <c r="D6" s="75" t="s">
+        <v>81</v>
+      </c>
+      <c r="G6" s="33"/>
+    </row>
+    <row r="7" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="34"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="76"/>
+    </row>
+    <row r="8" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="67" t="s">
+        <v>84</v>
+      </c>
+      <c r="C8" s="34"/>
+      <c r="D8" s="77" t="s">
+        <v>92</v>
+      </c>
+      <c r="G8" s="70"/>
+    </row>
+    <row r="9" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B9" s="39" t="s">
+        <v>82</v>
+      </c>
+      <c r="C9" s="34"/>
+      <c r="D9" s="78" t="s">
+        <v>82</v>
+      </c>
+      <c r="G9" s="33"/>
+    </row>
+    <row r="10" spans="1:8" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="34"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="76"/>
+    </row>
+    <row r="11" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="67" t="s">
+        <v>85</v>
+      </c>
+      <c r="C11" s="34"/>
+      <c r="D11" s="77" t="s">
+        <v>93</v>
+      </c>
+      <c r="G11" s="70"/>
+    </row>
+    <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="39" t="s">
+        <v>88</v>
+      </c>
+      <c r="C12" s="34"/>
+      <c r="D12" s="78" t="s">
+        <v>88</v>
+      </c>
+      <c r="G12" s="70"/>
+    </row>
+    <row r="13" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="33"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="74"/>
+      <c r="G13" s="33"/>
+    </row>
+    <row r="14" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="67" t="s">
+        <v>79</v>
+      </c>
+      <c r="C14" s="34"/>
+      <c r="D14" s="77" t="s">
+        <v>94</v>
+      </c>
+      <c r="G14" s="33"/>
+    </row>
+    <row r="15" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="39" t="s">
+        <v>80</v>
+      </c>
+      <c r="C15" s="34"/>
+      <c r="D15" s="78" t="s">
+        <v>80</v>
+      </c>
+      <c r="G15" s="33"/>
+    </row>
+    <row r="16" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="34"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="76"/>
+      <c r="G16" s="33"/>
+    </row>
+    <row r="17" spans="2:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="67" t="s">
+        <v>86</v>
+      </c>
+      <c r="C17" s="34"/>
+      <c r="D17" s="77" t="s">
+        <v>95</v>
+      </c>
+      <c r="G17" s="33"/>
+    </row>
+    <row r="18" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="39" t="s">
+        <v>87</v>
+      </c>
+      <c r="C18" s="34"/>
+      <c r="D18" s="78" t="s">
+        <v>87</v>
+      </c>
+      <c r="G18" s="33"/>
+    </row>
+    <row r="19" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="33"/>
+      <c r="D19" s="74"/>
+      <c r="G19" s="33"/>
+    </row>
+    <row r="20" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="33"/>
+      <c r="D20" s="74"/>
+      <c r="G20" s="33"/>
+    </row>
+    <row r="21" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="68"/>
+      <c r="C21" s="34"/>
+      <c r="D21" s="68"/>
+      <c r="G21" s="33"/>
+    </row>
+    <row r="22" spans="2:7" s="34" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="70"/>
+      <c r="D22" s="71"/>
+      <c r="G22" s="33"/>
+    </row>
+    <row r="23" spans="2:7" s="34" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="33"/>
+      <c r="D23" s="33"/>
+    </row>
+    <row r="24" spans="2:7" s="34" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="B24" s="67"/>
+      <c r="D24" s="67"/>
+      <c r="G24" s="70"/>
+    </row>
+    <row r="25" spans="2:7" s="34" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B25" s="39"/>
+      <c r="D25" s="39"/>
+      <c r="G25" s="44"/>
+    </row>
+    <row r="26" spans="2:7" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G26" s="33"/>
+    </row>
+    <row r="27" spans="2:7" s="34" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="B27" s="67"/>
+      <c r="D27" s="67"/>
+      <c r="G27" s="33"/>
+    </row>
+    <row r="28" spans="2:7" s="34" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B28" s="39"/>
+      <c r="D28" s="39"/>
+    </row>
+    <row r="29" spans="2:7" s="34" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B29" s="70"/>
+      <c r="D29" s="70"/>
+      <c r="G29" s="70"/>
+    </row>
+    <row r="30" spans="2:7" s="34" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B30" s="44"/>
+      <c r="D30" s="44"/>
+      <c r="G30" s="44"/>
+    </row>
+    <row r="31" spans="2:7" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B31" s="33"/>
+      <c r="D31" s="33"/>
+      <c r="G31" s="33"/>
+    </row>
+    <row r="32" spans="2:7" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B32" s="33"/>
+      <c r="D32" s="33"/>
+      <c r="G32" s="33"/>
+    </row>
+    <row r="33" spans="2:7" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="34" spans="2:7" s="34" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B34" s="70"/>
+      <c r="D34" s="70"/>
+      <c r="G34" s="70"/>
+    </row>
+    <row r="35" spans="2:7" s="34" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B35" s="44"/>
+      <c r="D35" s="44"/>
+      <c r="G35" s="44"/>
+    </row>
+    <row r="36" spans="2:7" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B36" s="33"/>
+      <c r="D36" s="33"/>
+      <c r="G36" s="33"/>
+    </row>
+    <row r="37" spans="2:7" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B37" s="33"/>
+      <c r="D37" s="33"/>
+      <c r="G37" s="33"/>
+    </row>
+    <row r="38" spans="2:7" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <pageMargins left="0.25" right="0.25" top="0.46" bottom="0.44" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D4"/>
   <sheetViews>

--- a/01 DOCUEMENTOS/ETIQ,.LIBROS.xlsx
+++ b/01 DOCUEMENTOS/ETIQ,.LIBROS.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="90">
   <si>
     <t>Damián Hernández Polvo</t>
   </si>
@@ -542,274 +542,12 @@
       <t xml:space="preserve">      Arroz verde                          </t>
     </r>
   </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Semana uno                                          </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">                          Lunes: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">      Arroz verde                          </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Semana dos</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">                                                                                        </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">      Lunes</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">:               Sopa de pasta                </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Semana tres</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">                                                           </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">   Miercoles</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>:          Arroz blanco</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Semana cuatro</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">                                             </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">   Miercoles</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">:        Sopa de verduras </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Semana cinco</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">                                   </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">                        Lunes</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>:               Arroz blanco</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Semana seis</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">                                                  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">   Lunes</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>:            Arroz blanco</t>
-    </r>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="28" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -974,13 +712,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -989,45 +720,7 @@
     </font>
     <font>
       <b/>
-      <sz val="14"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="12"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="16"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="16"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1121,7 +814,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -1326,25 +1019,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -4151,8 +3829,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4177,8 +3855,8 @@
         <v>89</v>
       </c>
       <c r="C2" s="34"/>
-      <c r="D2" s="72" t="s">
-        <v>90</v>
+      <c r="D2" s="68" t="s">
+        <v>89</v>
       </c>
       <c r="G2" s="70"/>
     </row>
@@ -4187,7 +3865,7 @@
         <v>78</v>
       </c>
       <c r="C3" s="34"/>
-      <c r="D3" s="73" t="s">
+      <c r="D3" s="70" t="s">
         <v>78</v>
       </c>
       <c r="G3" s="33"/>
@@ -4196,7 +3874,7 @@
       <c r="A4" s="34"/>
       <c r="B4" s="33"/>
       <c r="C4" s="34"/>
-      <c r="D4" s="74"/>
+      <c r="D4" s="33"/>
       <c r="E4" s="34"/>
       <c r="F4" s="34"/>
       <c r="G4" s="33"/>
@@ -4207,8 +3885,8 @@
         <v>83</v>
       </c>
       <c r="C5" s="34"/>
-      <c r="D5" s="72" t="s">
-        <v>91</v>
+      <c r="D5" s="68" t="s">
+        <v>83</v>
       </c>
       <c r="G5" s="70"/>
     </row>
@@ -4217,7 +3895,7 @@
         <v>81</v>
       </c>
       <c r="C6" s="34"/>
-      <c r="D6" s="75" t="s">
+      <c r="D6" s="71" t="s">
         <v>81</v>
       </c>
       <c r="G6" s="33"/>
@@ -4225,15 +3903,15 @@
     <row r="7" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="34"/>
       <c r="C7" s="34"/>
-      <c r="D7" s="76"/>
+      <c r="D7" s="73"/>
     </row>
     <row r="8" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="67" t="s">
         <v>84</v>
       </c>
       <c r="C8" s="34"/>
-      <c r="D8" s="77" t="s">
-        <v>92</v>
+      <c r="D8" s="67" t="s">
+        <v>84</v>
       </c>
       <c r="G8" s="70"/>
     </row>
@@ -4242,7 +3920,7 @@
         <v>82</v>
       </c>
       <c r="C9" s="34"/>
-      <c r="D9" s="78" t="s">
+      <c r="D9" s="39" t="s">
         <v>82</v>
       </c>
       <c r="G9" s="33"/>
@@ -4250,15 +3928,15 @@
     <row r="10" spans="1:8" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="34"/>
       <c r="C10" s="34"/>
-      <c r="D10" s="76"/>
+      <c r="D10" s="73"/>
     </row>
     <row r="11" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="67" t="s">
         <v>85</v>
       </c>
       <c r="C11" s="34"/>
-      <c r="D11" s="77" t="s">
-        <v>93</v>
+      <c r="D11" s="67" t="s">
+        <v>85</v>
       </c>
       <c r="G11" s="70"/>
     </row>
@@ -4267,7 +3945,7 @@
         <v>88</v>
       </c>
       <c r="C12" s="34"/>
-      <c r="D12" s="78" t="s">
+      <c r="D12" s="39" t="s">
         <v>88</v>
       </c>
       <c r="G12" s="70"/>
@@ -4275,7 +3953,7 @@
     <row r="13" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="33"/>
       <c r="C13" s="34"/>
-      <c r="D13" s="74"/>
+      <c r="D13" s="33"/>
       <c r="G13" s="33"/>
     </row>
     <row r="14" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -4283,8 +3961,8 @@
         <v>79</v>
       </c>
       <c r="C14" s="34"/>
-      <c r="D14" s="77" t="s">
-        <v>94</v>
+      <c r="D14" s="67" t="s">
+        <v>79</v>
       </c>
       <c r="G14" s="33"/>
     </row>
@@ -4293,7 +3971,7 @@
         <v>80</v>
       </c>
       <c r="C15" s="34"/>
-      <c r="D15" s="78" t="s">
+      <c r="D15" s="39" t="s">
         <v>80</v>
       </c>
       <c r="G15" s="33"/>
@@ -4301,7 +3979,7 @@
     <row r="16" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="34"/>
       <c r="C16" s="34"/>
-      <c r="D16" s="76"/>
+      <c r="D16" s="73"/>
       <c r="G16" s="33"/>
     </row>
     <row r="17" spans="2:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -4309,8 +3987,8 @@
         <v>86</v>
       </c>
       <c r="C17" s="34"/>
-      <c r="D17" s="77" t="s">
-        <v>95</v>
+      <c r="D17" s="67" t="s">
+        <v>86</v>
       </c>
       <c r="G17" s="33"/>
     </row>
@@ -4319,19 +3997,19 @@
         <v>87</v>
       </c>
       <c r="C18" s="34"/>
-      <c r="D18" s="78" t="s">
+      <c r="D18" s="39" t="s">
         <v>87</v>
       </c>
       <c r="G18" s="33"/>
     </row>
     <row r="19" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="33"/>
-      <c r="D19" s="74"/>
+      <c r="D19" s="33"/>
       <c r="G19" s="33"/>
     </row>
     <row r="20" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="33"/>
-      <c r="D20" s="74"/>
+      <c r="D20" s="72"/>
       <c r="G20" s="33"/>
     </row>
     <row r="21" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">

--- a/01 DOCUEMENTOS/ETIQ,.LIBROS.xlsx
+++ b/01 DOCUEMENTOS/ETIQ,.LIBROS.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="105" windowWidth="10335" windowHeight="4815" firstSheet="3" activeTab="6"/>
+    <workbookView xWindow="600" yWindow="105" windowWidth="10335" windowHeight="4815" firstSheet="3" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="MAS ETIQUETAS   " sheetId="9" r:id="rId1"/>
@@ -27,12 +27,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="90">
   <si>
     <t>Damián Hernández Polvo</t>
-  </si>
-  <si>
-    <t>VENENO</t>
   </si>
   <si>
     <t xml:space="preserve">NORMA LEDO PARRA </t>
@@ -541,6 +538,9 @@
       </rPr>
       <t xml:space="preserve">      Arroz verde                          </t>
     </r>
+  </si>
+  <si>
+    <t>IMPRESORA HPMFP137FNW     20-NOV-2023</t>
   </si>
 </sst>
 </file>
@@ -741,7 +741,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -810,11 +810,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -1024,6 +1039,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1040,121 +1058,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1363577</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>981075</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Imagen 2" descr="Veneno - Wikipedia, la enciclopedia libre"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2505075" y="200025"/>
-          <a:ext cx="1011152" cy="971550"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1392152</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>981075</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Imagen 3" descr="Veneno - Wikipedia, la enciclopedia libre"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="704850" y="200025"/>
-          <a:ext cx="1011152" cy="971550"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1470,31 +1373,31 @@
     </row>
     <row r="2" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="45" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C2" s="36"/>
       <c r="D2" s="46" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G2" s="17"/>
     </row>
     <row r="3" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="36" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C3" s="36"/>
       <c r="D3" s="36" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G3" s="17"/>
     </row>
     <row r="4" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="36" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C4" s="36"/>
       <c r="D4" s="36" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G4" s="18"/>
     </row>
@@ -1522,31 +1425,31 @@
     </row>
     <row r="8" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="39" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C8" s="34"/>
       <c r="D8" s="39" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G8" s="17"/>
     </row>
     <row r="9" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="36" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C9" s="34"/>
       <c r="D9" s="36" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G9" s="17"/>
     </row>
     <row r="10" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="38" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C10" s="34"/>
       <c r="D10" s="36" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G10" s="18"/>
     </row>
@@ -1567,31 +1470,31 @@
     </row>
     <row r="14" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="39" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C14" s="34"/>
       <c r="D14" s="39" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G14" s="17"/>
     </row>
     <row r="15" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="41" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C15" s="34"/>
       <c r="D15" s="41" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G15" s="17"/>
     </row>
     <row r="16" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="36" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C16" s="34"/>
       <c r="D16" s="38" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G16" s="18"/>
     </row>
@@ -1620,41 +1523,41 @@
     </row>
     <row r="21" spans="2:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="33" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C21" s="34"/>
       <c r="D21" s="39" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G21" s="17"/>
     </row>
     <row r="22" spans="2:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="39" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C22" s="34"/>
       <c r="D22" s="33" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G22" s="17"/>
     </row>
     <row r="23" spans="2:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="44" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C23" s="34"/>
       <c r="D23" s="43" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G23" s="18"/>
     </row>
     <row r="24" spans="2:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="39" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C24" s="34"/>
       <c r="D24" s="33" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G24" s="20"/>
     </row>
@@ -1666,41 +1569,41 @@
     </row>
     <row r="26" spans="2:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="42" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C26" s="34"/>
       <c r="D26" s="42" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G26" s="20"/>
     </row>
     <row r="27" spans="2:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="39" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C27" s="34"/>
       <c r="D27" s="33" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G27" s="20"/>
     </row>
     <row r="28" spans="2:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="44" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C28" s="34"/>
       <c r="D28" s="43" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G28" s="20"/>
     </row>
     <row r="29" spans="2:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="39" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C29" s="34"/>
       <c r="D29" s="33" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G29" s="20"/>
     </row>
@@ -1749,41 +1652,41 @@
     </row>
     <row r="38" spans="2:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="39" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C38" s="16"/>
       <c r="D38" s="33" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G38" s="20"/>
     </row>
     <row r="39" spans="2:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="39" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C39" s="16"/>
       <c r="D39" s="33" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G39" s="20"/>
     </row>
     <row r="40" spans="2:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="44" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C40" s="16"/>
       <c r="D40" s="43" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G40" s="20"/>
     </row>
     <row r="41" spans="2:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="39" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C41" s="16"/>
       <c r="D41" s="33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G41" s="20"/>
     </row>
@@ -1928,31 +1831,31 @@
     </row>
     <row r="2" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="42" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C2" s="36"/>
       <c r="D2" s="66" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G2" s="17"/>
     </row>
     <row r="3" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="36" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C3" s="36"/>
       <c r="D3" s="36" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G3" s="17"/>
     </row>
     <row r="4" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="36" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C4" s="36"/>
       <c r="D4" s="36" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G4" s="18"/>
     </row>
@@ -1980,31 +1883,31 @@
     </row>
     <row r="8" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C8" s="34"/>
       <c r="D8" s="42" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G8" s="17"/>
     </row>
     <row r="9" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="36" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C9" s="34"/>
       <c r="D9" s="36" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G9" s="17"/>
     </row>
     <row r="10" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="38" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C10" s="34"/>
       <c r="D10" s="36" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G10" s="18"/>
     </row>
@@ -2025,31 +1928,31 @@
     </row>
     <row r="14" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="42" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C14" s="34"/>
       <c r="D14" s="42" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G14" s="17"/>
     </row>
     <row r="15" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="41" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C15" s="34"/>
       <c r="D15" s="41" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G15" s="17"/>
     </row>
     <row r="16" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="36" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C16" s="34"/>
       <c r="D16" s="38" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G16" s="18"/>
     </row>
@@ -2078,27 +1981,27 @@
     </row>
     <row r="21" spans="2:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="42" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C21" s="34"/>
       <c r="D21" s="42" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G21" s="17"/>
     </row>
     <row r="22" spans="2:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="41" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C22" s="34"/>
       <c r="D22" s="33" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G22" s="17"/>
     </row>
     <row r="23" spans="2:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="38" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C23" s="34"/>
       <c r="D23" s="43"/>
@@ -2363,15 +2266,15 @@
     </row>
     <row r="3" spans="1:7" s="62" customFormat="1" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="63" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C3" s="61"/>
       <c r="D3" s="65" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E3" s="61"/>
       <c r="F3" s="65" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -2412,15 +2315,15 @@
     </row>
     <row r="8" spans="1:7" s="62" customFormat="1" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="63" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C8" s="64"/>
       <c r="D8" s="63" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E8" s="64"/>
       <c r="F8" s="63" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -2459,15 +2362,15 @@
     </row>
     <row r="13" spans="1:7" s="62" customFormat="1" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="63" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C13" s="64"/>
       <c r="D13" s="63" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E13" s="64"/>
       <c r="F13" s="63" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -2680,16 +2583,16 @@
     </row>
     <row r="3" spans="2:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="47" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D3" s="47" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F3" s="47" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H3" s="47" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="2:8" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2714,16 +2617,16 @@
     </row>
     <row r="6" spans="2:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="47" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D6" s="47" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F6" s="47" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H6" s="47" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="2:8" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2748,16 +2651,16 @@
     </row>
     <row r="9" spans="2:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="47" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D9" s="47" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F9" s="47" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H9" s="47" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="2:8" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2782,16 +2685,16 @@
     </row>
     <row r="12" spans="2:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="47" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D12" s="47" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F12" s="47" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H12" s="47" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="2:8" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2816,16 +2719,16 @@
     </row>
     <row r="15" spans="2:8" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="47" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D15" s="47" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F15" s="47" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H15" s="47" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="2:8" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2850,16 +2753,16 @@
     </row>
     <row r="18" spans="2:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="47" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D18" s="47" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F18" s="47" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H18" s="47" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="2:8" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2884,16 +2787,16 @@
     </row>
     <row r="21" spans="2:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="47" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D21" s="47" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F21" s="47" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H21" s="47" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="2:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3059,16 +2962,16 @@
     </row>
     <row r="3" spans="2:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="47" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D3" s="47" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F3" s="47" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H3" s="47" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="2:8" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3093,16 +2996,16 @@
     </row>
     <row r="6" spans="2:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="47" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D6" s="47" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F6" s="47" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H6" s="47" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="2:8" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3127,16 +3030,16 @@
     </row>
     <row r="9" spans="2:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="47" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D9" s="47" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F9" s="47" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H9" s="47" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="2:8" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3161,16 +3064,16 @@
     </row>
     <row r="12" spans="2:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="47" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D12" s="47" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F12" s="47" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H12" s="47" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="2:8" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3195,16 +3098,16 @@
     </row>
     <row r="15" spans="2:8" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="47" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D15" s="47" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F15" s="47" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H15" s="47" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="2:8" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3229,16 +3132,16 @@
     </row>
     <row r="18" spans="2:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="47" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D18" s="47" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F18" s="47" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H18" s="47" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="2:8" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3263,16 +3166,16 @@
     </row>
     <row r="21" spans="2:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="47" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D21" s="47" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F21" s="47" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H21" s="47" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="2:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3420,25 +3323,25 @@
     </row>
     <row r="2" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B2" s="31" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" s="30" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G2" s="17"/>
     </row>
     <row r="3" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G3" s="17"/>
     </row>
     <row r="4" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D4" s="13"/>
       <c r="G4" s="18"/>
@@ -3470,37 +3373,37 @@
     </row>
     <row r="9" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B9" s="31" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D9" s="32" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G9" s="17"/>
     </row>
     <row r="10" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G10" s="17"/>
     </row>
     <row r="11" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G11" s="18"/>
     </row>
     <row r="12" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B12" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G12" s="20"/>
     </row>
@@ -3520,37 +3423,37 @@
     </row>
     <row r="16" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B16" s="31" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D16" s="31" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G16" s="17"/>
     </row>
     <row r="17" spans="2:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G17" s="17"/>
     </row>
     <row r="18" spans="2:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18" s="27" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D18" s="27" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G18" s="18"/>
     </row>
     <row r="19" spans="2:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G19" s="20"/>
     </row>
@@ -3585,37 +3488,37 @@
     </row>
     <row r="26" spans="2:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B26" s="31" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D26" s="31" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G26" s="17"/>
     </row>
     <row r="27" spans="2:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B27" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G27" s="17"/>
     </row>
     <row r="28" spans="2:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B28" s="27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D28" s="27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G28" s="18"/>
     </row>
     <row r="29" spans="2:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G29" s="20"/>
     </row>
@@ -3631,37 +3534,37 @@
     </row>
     <row r="32" spans="2:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B32" s="30" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D32" s="31" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G32" s="20"/>
     </row>
     <row r="33" spans="2:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B33" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G33" s="20"/>
     </row>
     <row r="34" spans="2:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B34" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G34" s="20"/>
     </row>
     <row r="35" spans="2:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B35" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G35" s="20"/>
     </row>
@@ -3682,37 +3585,37 @@
     </row>
     <row r="39" spans="2:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D39" s="23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G39" s="20"/>
     </row>
     <row r="40" spans="2:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B40" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D40" s="24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G40" s="20"/>
     </row>
     <row r="41" spans="2:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D41" s="29" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G41" s="20"/>
     </row>
     <row r="42" spans="2:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D42" s="24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G42" s="20"/>
     </row>
@@ -3829,7 +3732,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
@@ -3852,21 +3755,21 @@
     </row>
     <row r="2" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="68" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C2" s="34"/>
       <c r="D2" s="68" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G2" s="70"/>
     </row>
     <row r="3" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B3" s="70" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C3" s="34"/>
       <c r="D3" s="70" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G3" s="33"/>
     </row>
@@ -3882,21 +3785,21 @@
     </row>
     <row r="5" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="68" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C5" s="34"/>
       <c r="D5" s="68" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G5" s="70"/>
     </row>
     <row r="6" spans="1:8" ht="17.25" x14ac:dyDescent="0.25">
       <c r="B6" s="71" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C6" s="34"/>
       <c r="D6" s="71" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G6" s="33"/>
     </row>
@@ -3907,21 +3810,21 @@
     </row>
     <row r="8" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="67" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C8" s="34"/>
       <c r="D8" s="67" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G8" s="70"/>
     </row>
     <row r="9" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B9" s="39" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C9" s="34"/>
       <c r="D9" s="39" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G9" s="33"/>
     </row>
@@ -3932,21 +3835,21 @@
     </row>
     <row r="11" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="67" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C11" s="34"/>
       <c r="D11" s="67" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G11" s="70"/>
     </row>
     <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="39" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C12" s="34"/>
       <c r="D12" s="39" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G12" s="70"/>
     </row>
@@ -3958,21 +3861,21 @@
     </row>
     <row r="14" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="67" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C14" s="34"/>
       <c r="D14" s="67" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G14" s="33"/>
     </row>
     <row r="15" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="39" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C15" s="34"/>
       <c r="D15" s="39" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G15" s="33"/>
     </row>
@@ -3984,21 +3887,21 @@
     </row>
     <row r="17" spans="2:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17" s="67" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C17" s="34"/>
       <c r="D17" s="67" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G17" s="33"/>
     </row>
     <row r="18" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="39" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C18" s="34"/>
       <c r="D18" s="39" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G18" s="33"/>
     </row>
@@ -4113,31 +4016,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.85546875" customWidth="1"/>
     <col min="2" max="2" width="25.140625" customWidth="1"/>
-    <col min="3" max="3" width="7.85546875" customWidth="1"/>
-    <col min="4" max="4" width="25.140625" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" customWidth="1"/>
+    <col min="4" max="4" width="29.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" ht="82.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:4" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D2" s="74" t="s">
+        <v>89</v>
+      </c>
+    </row>
     <row r="3" spans="2:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="2:4" ht="78" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="B4" s="7"/>
+      <c r="D4" s="7"/>
     </row>
   </sheetData>
-  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.19685039370078741" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/01 DOCUEMENTOS/ETIQ,.LIBROS.xlsx
+++ b/01 DOCUEMENTOS/ETIQ,.LIBROS.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="105" windowWidth="10335" windowHeight="4815" firstSheet="3" activeTab="8"/>
+    <workbookView xWindow="600" yWindow="105" windowWidth="10335" windowHeight="4815" firstSheet="3" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="MAS ETIQUETAS   " sheetId="9" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="91">
   <si>
     <t>Damián Hernández Polvo</t>
   </si>
@@ -260,61 +260,13 @@
     <t>CALZADA ZAVALETA # 706</t>
   </si>
   <si>
-    <t xml:space="preserve">                       Tacos Dorados</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Semana cinco</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">                                   </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">                        Lunes</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>:               Arroz blanco</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">                               Huauzontles con queso</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                           Calabacitas rellenas        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                 Tortitas de papa</t>
+    <t>IMPRESORA HPMFP137FNW     20-NOV-2023</t>
+  </si>
+  <si>
+    <t>Carne de puero salsa verde con calabazas</t>
+  </si>
+  <si>
+    <t>Norteño con espinacas, y rajas de guachinango</t>
   </si>
   <si>
     <r>
@@ -326,7 +278,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Semana dos</t>
+      <t>Semana uno</t>
     </r>
     <r>
       <rPr>
@@ -347,7 +299,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">      Lunes</t>
+      <t xml:space="preserve">      Jueves</t>
     </r>
     <r>
       <rPr>
@@ -371,7 +323,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Semana tres</t>
+      <t>Semana dos</t>
     </r>
     <r>
       <rPr>
@@ -403,7 +355,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">   Miercoles</t>
+      <t xml:space="preserve">   Sabado</t>
     </r>
     <r>
       <rPr>
@@ -414,8 +366,11 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>:          Arroz blanco</t>
+      <t>:          Sopa de pasta</t>
     </r>
+  </si>
+  <si>
+    <t>Pechugas al horno</t>
   </si>
   <si>
     <r>
@@ -427,7 +382,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Semana cuatro</t>
+      <t>Semana tres</t>
     </r>
     <r>
       <rPr>
@@ -459,7 +414,53 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">:        Sopa de verduras </t>
+      <t>:        Arroz blanco</t>
+    </r>
+  </si>
+  <si>
+    <t>Papas con poblano y granos de elote</t>
+  </si>
+  <si>
+    <t>Frijol con costilla de puerco</t>
+  </si>
+  <si>
+    <t>Chile guachinango con atun   (  sin capear )</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Semana cinco </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Lunes</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">:  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Sopa de papa blanca ---Pechugas al horno c/calabaza, champiñon-cebolla morada, espinaca</t>
     </r>
   </si>
   <si>
@@ -483,7 +484,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">                                                  </t>
+      <t xml:space="preserve">       </t>
     </r>
     <r>
       <rPr>
@@ -493,7 +494,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">   Lunes</t>
+      <t xml:space="preserve"> Lunes</t>
     </r>
     <r>
       <rPr>
@@ -504,14 +505,34 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>:            Arroz blanco</t>
+      <t>:   sopa pasta</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">                         Chiles rellenos con queso</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                           Calabacitas a la mexicana</t>
+    <r>
+      <t xml:space="preserve">Semana cinco    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  Viernes</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:   Sopa fria Codito, con jamon y crema</t>
+    </r>
   </si>
   <si>
     <r>
@@ -519,7 +540,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="14"/>
+        <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -530,24 +551,21 @@
     <r>
       <rPr>
         <b/>
-        <sz val="14"/>
+        <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">      Arroz verde                          </t>
+      <t xml:space="preserve">      Arroz Blanco                         </t>
     </r>
-  </si>
-  <si>
-    <t>IMPRESORA HPMFP137FNW     20-NOV-2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -718,14 +736,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -829,7 +839,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -1022,9 +1032,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1034,14 +1041,32 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3730,23 +3755,26 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
   <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" style="69" customWidth="1"/>
-    <col min="2" max="2" width="45.28515625" style="69" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" style="69" customWidth="1"/>
-    <col min="4" max="4" width="45.42578125" style="69" customWidth="1"/>
-    <col min="5" max="5" width="5.5703125" style="69" customWidth="1"/>
-    <col min="6" max="6" width="38.140625" style="69" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" style="68" customWidth="1"/>
+    <col min="2" max="2" width="46.7109375" style="68" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="68" customWidth="1"/>
+    <col min="4" max="4" width="47" style="68" customWidth="1"/>
+    <col min="5" max="5" width="5.5703125" style="68" customWidth="1"/>
+    <col min="6" max="6" width="38.140625" style="68" customWidth="1"/>
     <col min="7" max="7" width="29.85546875" style="34" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4" style="69" customWidth="1"/>
-    <col min="9" max="16384" width="11.42578125" style="69"/>
+    <col min="8" max="8" width="4" style="68" customWidth="1"/>
+    <col min="9" max="16384" width="11.42578125" style="68"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3754,22 +3782,22 @@
       <c r="D1" s="34"/>
     </row>
     <row r="2" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="68" t="s">
-        <v>88</v>
+      <c r="B2" s="77" t="s">
+        <v>90</v>
       </c>
       <c r="C2" s="34"/>
-      <c r="D2" s="68" t="s">
-        <v>88</v>
-      </c>
-      <c r="G2" s="70"/>
+      <c r="D2" s="77" t="s">
+        <v>90</v>
+      </c>
+      <c r="G2" s="69"/>
     </row>
     <row r="3" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B3" s="70" t="s">
-        <v>77</v>
+      <c r="B3" s="69" t="s">
+        <v>78</v>
       </c>
       <c r="C3" s="34"/>
-      <c r="D3" s="70" t="s">
-        <v>77</v>
+      <c r="D3" s="69" t="s">
+        <v>78</v>
       </c>
       <c r="G3" s="33"/>
     </row>
@@ -3783,75 +3811,75 @@
       <c r="G4" s="33"/>
       <c r="H4" s="34"/>
     </row>
-    <row r="5" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="68" t="s">
-        <v>82</v>
+    <row r="5" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="75" t="s">
+        <v>80</v>
       </c>
       <c r="C5" s="34"/>
-      <c r="D5" s="68" t="s">
-        <v>82</v>
-      </c>
-      <c r="G5" s="70"/>
-    </row>
-    <row r="6" spans="1:8" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B6" s="71" t="s">
+      <c r="D5" s="75" t="s">
         <v>80</v>
       </c>
+      <c r="G5" s="69"/>
+    </row>
+    <row r="6" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="72" t="s">
+        <v>79</v>
+      </c>
       <c r="C6" s="34"/>
-      <c r="D6" s="71" t="s">
-        <v>80</v>
+      <c r="D6" s="72" t="s">
+        <v>79</v>
       </c>
       <c r="G6" s="33"/>
     </row>
     <row r="7" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="34"/>
       <c r="C7" s="34"/>
-      <c r="D7" s="73"/>
+      <c r="D7" s="34"/>
     </row>
     <row r="8" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="67" t="s">
-        <v>83</v>
+      <c r="B8" s="76" t="s">
+        <v>81</v>
       </c>
       <c r="C8" s="34"/>
-      <c r="D8" s="67" t="s">
-        <v>83</v>
-      </c>
-      <c r="G8" s="70"/>
+      <c r="D8" s="76" t="s">
+        <v>81</v>
+      </c>
+      <c r="G8" s="69"/>
     </row>
     <row r="9" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B9" s="39" t="s">
-        <v>81</v>
+      <c r="B9" s="73" t="s">
+        <v>82</v>
       </c>
       <c r="C9" s="34"/>
-      <c r="D9" s="39" t="s">
-        <v>81</v>
+      <c r="D9" s="73" t="s">
+        <v>82</v>
       </c>
       <c r="G9" s="33"/>
     </row>
     <row r="10" spans="1:8" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="34"/>
       <c r="C10" s="34"/>
-      <c r="D10" s="73"/>
+      <c r="D10" s="34"/>
     </row>
     <row r="11" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="67" t="s">
-        <v>84</v>
+      <c r="B11" s="76" t="s">
+        <v>83</v>
       </c>
       <c r="C11" s="34"/>
-      <c r="D11" s="67" t="s">
-        <v>84</v>
-      </c>
-      <c r="G11" s="70"/>
+      <c r="D11" s="76" t="s">
+        <v>83</v>
+      </c>
+      <c r="G11" s="69"/>
     </row>
     <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="39" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C12" s="34"/>
       <c r="D12" s="39" t="s">
-        <v>87</v>
-      </c>
-      <c r="G12" s="70"/>
+        <v>84</v>
+      </c>
+      <c r="G12" s="69"/>
     </row>
     <row r="13" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="33"/>
@@ -3859,71 +3887,75 @@
       <c r="D13" s="33"/>
       <c r="G13" s="33"/>
     </row>
-    <row r="14" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="67" t="s">
-        <v>78</v>
+    <row r="14" spans="1:8" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="78" t="s">
+        <v>87</v>
       </c>
       <c r="C14" s="34"/>
-      <c r="D14" s="67" t="s">
-        <v>78</v>
+      <c r="D14" s="78" t="s">
+        <v>87</v>
       </c>
       <c r="G14" s="33"/>
     </row>
-    <row r="15" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="39" t="s">
-        <v>79</v>
-      </c>
+    <row r="15" spans="1:8" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="74"/>
       <c r="C15" s="34"/>
-      <c r="D15" s="39" t="s">
-        <v>79</v>
-      </c>
+      <c r="D15" s="74"/>
       <c r="G15" s="33"/>
     </row>
-    <row r="16" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="34"/>
       <c r="C16" s="34"/>
-      <c r="D16" s="73"/>
+      <c r="D16" s="34"/>
       <c r="G16" s="33"/>
     </row>
-    <row r="17" spans="2:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="67" t="s">
+    <row r="17" spans="2:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="77" t="s">
+        <v>89</v>
+      </c>
+      <c r="C17" s="34"/>
+      <c r="D17" s="77" t="s">
+        <v>89</v>
+      </c>
+      <c r="G17" s="33"/>
+    </row>
+    <row r="18" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="73" t="s">
         <v>85</v>
       </c>
-      <c r="C17" s="34"/>
-      <c r="D17" s="67" t="s">
+      <c r="C18" s="34"/>
+      <c r="D18" s="73" t="s">
         <v>85</v>
       </c>
-      <c r="G17" s="33"/>
-    </row>
-    <row r="18" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="39" t="s">
-        <v>86</v>
-      </c>
-      <c r="C18" s="34"/>
-      <c r="D18" s="39" t="s">
-        <v>86</v>
-      </c>
       <c r="G18" s="33"/>
     </row>
-    <row r="19" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="33"/>
       <c r="D19" s="33"/>
       <c r="G19" s="33"/>
     </row>
-    <row r="20" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="33"/>
-      <c r="D20" s="72"/>
+    <row r="20" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="79" t="s">
+        <v>88</v>
+      </c>
+      <c r="D20" s="79" t="s">
+        <v>88</v>
+      </c>
       <c r="G20" s="33"/>
     </row>
     <row r="21" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="68"/>
+      <c r="B21" s="69" t="s">
+        <v>86</v>
+      </c>
       <c r="C21" s="34"/>
-      <c r="D21" s="68"/>
+      <c r="D21" s="69" t="s">
+        <v>86</v>
+      </c>
       <c r="G21" s="33"/>
     </row>
     <row r="22" spans="2:7" s="34" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="70"/>
-      <c r="D22" s="71"/>
+      <c r="B22" s="69"/>
+      <c r="D22" s="70"/>
       <c r="G22" s="33"/>
     </row>
     <row r="23" spans="2:7" s="34" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3933,7 +3965,7 @@
     <row r="24" spans="2:7" s="34" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="B24" s="67"/>
       <c r="D24" s="67"/>
-      <c r="G24" s="70"/>
+      <c r="G24" s="69"/>
     </row>
     <row r="25" spans="2:7" s="34" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B25" s="39"/>
@@ -3953,9 +3985,9 @@
       <c r="D28" s="39"/>
     </row>
     <row r="29" spans="2:7" s="34" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B29" s="70"/>
-      <c r="D29" s="70"/>
-      <c r="G29" s="70"/>
+      <c r="B29" s="69"/>
+      <c r="D29" s="69"/>
+      <c r="G29" s="69"/>
     </row>
     <row r="30" spans="2:7" s="34" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B30" s="44"/>
@@ -3974,9 +4006,9 @@
     </row>
     <row r="33" spans="2:7" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="34" spans="2:7" s="34" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B34" s="70"/>
-      <c r="D34" s="70"/>
-      <c r="G34" s="70"/>
+      <c r="B34" s="69"/>
+      <c r="D34" s="69"/>
+      <c r="G34" s="69"/>
     </row>
     <row r="35" spans="2:7" s="34" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B35" s="44"/>
@@ -4016,7 +4048,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
@@ -4029,8 +4061,8 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:4" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D2" s="74" t="s">
-        <v>89</v>
+      <c r="D2" s="71" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="2:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/01 DOCUEMENTOS/ETIQ,.LIBROS.xlsx
+++ b/01 DOCUEMENTOS/ETIQ,.LIBROS.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="105" windowWidth="10335" windowHeight="4815" firstSheet="3" activeTab="6"/>
+    <workbookView xWindow="600" yWindow="105" windowWidth="10335" windowHeight="4815" firstSheet="3" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="MAS ETIQUETAS   " sheetId="9" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="91">
   <si>
     <t>Damián Hernández Polvo</t>
   </si>
@@ -258,9 +258,6 @@
   </si>
   <si>
     <t>CALZADA ZAVALETA # 706</t>
-  </si>
-  <si>
-    <t>IMPRESORA HPMFP137FNW     20-NOV-2023</t>
   </si>
   <si>
     <t>Carne de puero salsa verde con calabazas</t>
@@ -559,6 +556,9 @@
       </rPr>
       <t xml:space="preserve">      Arroz Blanco                         </t>
     </r>
+  </si>
+  <si>
+    <t>IMPRESORA  HP LASER 107W            27-NOV-2023</t>
   </si>
 </sst>
 </file>
@@ -839,7 +839,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -1067,6 +1067,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3760,7 +3763,7 @@
   </sheetPr>
   <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
@@ -3783,21 +3786,21 @@
     </row>
     <row r="2" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="77" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C2" s="34"/>
       <c r="D2" s="77" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G2" s="69"/>
     </row>
     <row r="3" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B3" s="69" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C3" s="34"/>
       <c r="D3" s="69" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G3" s="33"/>
     </row>
@@ -3813,21 +3816,21 @@
     </row>
     <row r="5" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="75" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C5" s="34"/>
       <c r="D5" s="75" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G5" s="69"/>
     </row>
     <row r="6" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="72" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C6" s="34"/>
       <c r="D6" s="72" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G6" s="33"/>
     </row>
@@ -3838,21 +3841,21 @@
     </row>
     <row r="8" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="76" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C8" s="34"/>
       <c r="D8" s="76" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G8" s="69"/>
     </row>
     <row r="9" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B9" s="73" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C9" s="34"/>
       <c r="D9" s="73" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G9" s="33"/>
     </row>
@@ -3863,21 +3866,21 @@
     </row>
     <row r="11" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="76" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C11" s="34"/>
       <c r="D11" s="76" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G11" s="69"/>
     </row>
     <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="39" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C12" s="34"/>
       <c r="D12" s="39" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G12" s="69"/>
     </row>
@@ -3889,11 +3892,11 @@
     </row>
     <row r="14" spans="1:8" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="78" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C14" s="34"/>
       <c r="D14" s="78" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G14" s="33"/>
     </row>
@@ -3911,21 +3914,21 @@
     </row>
     <row r="17" spans="2:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="77" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C17" s="34"/>
       <c r="D17" s="77" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G17" s="33"/>
     </row>
     <row r="18" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="73" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C18" s="34"/>
       <c r="D18" s="73" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G18" s="33"/>
     </row>
@@ -3936,20 +3939,20 @@
     </row>
     <row r="20" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="79" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D20" s="79" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G20" s="33"/>
     </row>
     <row r="21" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="69" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C21" s="34"/>
       <c r="D21" s="69" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G21" s="33"/>
     </row>
@@ -4046,10 +4049,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D4"/>
+  <dimension ref="B2:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4060,18 +4063,25 @@
     <col min="4" max="4" width="29.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:4" ht="81" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="80"/>
       <c r="D2" s="71" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="3" spans="2:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="2:4" ht="78" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="7"/>
-      <c r="D4" s="7"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="80"/>
+      <c r="D3" s="80"/>
+    </row>
+    <row r="4" spans="2:4" ht="39.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="2:4" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="7"/>
+      <c r="D5" s="71" t="s">
+        <v>90</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.25" right="0.25" top="0.34" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/01 DOCUEMENTOS/ETIQ,.LIBROS.xlsx
+++ b/01 DOCUEMENTOS/ETIQ,.LIBROS.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="92">
   <si>
     <t>Damián Hernández Polvo</t>
   </si>
@@ -558,7 +558,10 @@
     </r>
   </si>
   <si>
-    <t>IMPRESORA  HP LASER 107W            27-NOV-2023</t>
+    <t>IMPRESORA  HP LASER 107W            05-FEB -2024</t>
+  </si>
+  <si>
+    <t>IMPRESORA  HP LASER 107W            05-FEB-2024</t>
   </si>
 </sst>
 </file>
@@ -4052,7 +4055,7 @@
   <dimension ref="B2:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4077,7 +4080,7 @@
     <row r="5" spans="2:4" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="7"/>
       <c r="D5" s="71" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
